--- a/Code/Results/Cases/Case_0_6/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_6/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,8 +406,11 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -444,73 +447,76 @@
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>

--- a/Code/Results/Cases/Case_0_6/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_6/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,8 +409,14 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -450,73 +456,79 @@
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>

--- a/Code/Results/Cases/Case_0_6/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_6/res_line/pl_mw.xlsx
@@ -424,25 +424,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.01344450914421813</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.1254286652804666</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1.693217759814686</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>4.348100523675498</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>5.101538936911822</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2.431071999011465</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3.371152751250037</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>7.66312166460591</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -467,115 +467,1081 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0.01123029046443236</v>
+      </c>
+      <c r="D3">
+        <v>0.1057552671966846</v>
+      </c>
+      <c r="E3">
+        <v>1.424824778722254</v>
+      </c>
+      <c r="F3">
+        <v>3.699289516883596</v>
+      </c>
+      <c r="G3">
+        <v>4.333300474691953</v>
+      </c>
+      <c r="H3">
+        <v>2.074839541658122</v>
+      </c>
+      <c r="I3">
+        <v>2.86731387061171</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>6.74968365211538</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0.009954469255013976</v>
+      </c>
+      <c r="D4">
+        <v>0.0942557672951807</v>
+      </c>
+      <c r="E4">
+        <v>1.268390838363047</v>
+      </c>
+      <c r="F4">
+        <v>3.316475252101327</v>
+      </c>
+      <c r="G4">
+        <v>3.879922528112957</v>
+      </c>
+      <c r="H4">
+        <v>1.865111599200873</v>
+      </c>
+      <c r="I4">
+        <v>2.570096048374936</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>6.187481969423061</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0.009451301082858521</v>
+      </c>
+      <c r="D5">
+        <v>0.08968728018891881</v>
+      </c>
+      <c r="E5">
+        <v>1.206328173410441</v>
+      </c>
+      <c r="F5">
+        <v>3.163683450695345</v>
+      </c>
+      <c r="G5">
+        <v>3.698931776873223</v>
+      </c>
+      <c r="H5">
+        <v>1.781510220856745</v>
+      </c>
+      <c r="I5">
+        <v>2.45147968198475</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>5.958052239810286</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0.009368651490259339</v>
+      </c>
+      <c r="D6">
+        <v>0.08893506493557624</v>
+      </c>
+      <c r="E6">
+        <v>1.196113824896813</v>
+      </c>
+      <c r="F6">
+        <v>3.138487890714089</v>
+      </c>
+      <c r="G6">
+        <v>3.669083794278095</v>
+      </c>
+      <c r="H6">
+        <v>1.767730494983624</v>
+      </c>
+      <c r="I6">
+        <v>2.431920302332912</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>5.919936152110608</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0.009947620647242417</v>
+      </c>
+      <c r="D7">
+        <v>0.094193712212153</v>
+      </c>
+      <c r="E7">
+        <v>1.267547507920995</v>
+      </c>
+      <c r="F7">
+        <v>3.314402503187523</v>
+      </c>
+      <c r="G7">
+        <v>3.877467391839303</v>
+      </c>
+      <c r="H7">
+        <v>1.863977050457606</v>
+      </c>
+      <c r="I7">
+        <v>2.568486875002108</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>6.184389112219776</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0.01266077504014618</v>
+      </c>
+      <c r="D8">
+        <v>0.1185061164367482</v>
+      </c>
+      <c r="E8">
+        <v>1.598661873572809</v>
+      </c>
+      <c r="F8">
+        <v>4.120696658236369</v>
+      </c>
+      <c r="G8">
+        <v>4.832290491767253</v>
+      </c>
+      <c r="H8">
+        <v>2.306111781906054</v>
+      </c>
+      <c r="I8">
+        <v>3.194545657294583</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>7.348453399592813</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0.0189040408156842</v>
+      </c>
+      <c r="D9">
+        <v>0.1724351600639835</v>
+      </c>
+      <c r="E9">
+        <v>2.339041732980647</v>
+      </c>
+      <c r="F9">
+        <v>5.865531242081971</v>
+      </c>
+      <c r="G9">
+        <v>6.89835254984223</v>
+      </c>
+      <c r="H9">
+        <v>3.267369944928021</v>
+      </c>
+      <c r="I9">
+        <v>4.550075726719058</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>9.620230281550675</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0.02457415429230636</v>
+      </c>
+      <c r="D10">
+        <v>0.2190894863240231</v>
+      </c>
+      <c r="E10">
+        <v>2.987780375960668</v>
+      </c>
+      <c r="F10">
+        <v>7.3234337085498</v>
+      </c>
+      <c r="G10">
+        <v>8.625905861440799</v>
+      </c>
+      <c r="H10">
+        <v>4.074327958866832</v>
+      </c>
+      <c r="I10">
+        <v>5.683575033474483</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>11.28258838837513</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0.02758447439092393</v>
+      </c>
+      <c r="D11">
+        <v>0.2430042267572361</v>
+      </c>
+      <c r="E11">
+        <v>3.323983532946428</v>
+      </c>
+      <c r="F11">
+        <v>8.05130209268745</v>
+      </c>
+      <c r="G11">
+        <v>9.48917769713745</v>
+      </c>
+      <c r="H11">
+        <v>4.478348990258439</v>
+      </c>
+      <c r="I11">
+        <v>6.249823015249547</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>12.03742316731751</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0.02881357053192346</v>
+      </c>
+      <c r="D12">
+        <v>0.2526037403097234</v>
+      </c>
+      <c r="E12">
+        <v>3.459737941176357</v>
+      </c>
+      <c r="F12">
+        <v>8.339661184291401</v>
+      </c>
+      <c r="G12">
+        <v>9.831358644522368</v>
+      </c>
+      <c r="H12">
+        <v>4.638612554044244</v>
+      </c>
+      <c r="I12">
+        <v>6.474220800674374</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>12.32306348037548</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0.02854430894525706</v>
+      </c>
+      <c r="D13">
+        <v>0.2505088094287942</v>
+      </c>
+      <c r="E13">
+        <v>3.430070558411728</v>
+      </c>
+      <c r="F13">
+        <v>8.276919964998228</v>
+      </c>
+      <c r="G13">
+        <v>9.756897547954225</v>
+      </c>
+      <c r="H13">
+        <v>4.603732650145389</v>
+      </c>
+      <c r="I13">
+        <v>6.425392919624187</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>12.26155457991888</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0.02768359986357893</v>
+      </c>
+      <c r="D14">
+        <v>0.2437819227637021</v>
+      </c>
+      <c r="E14">
+        <v>3.334963746942066</v>
+      </c>
+      <c r="F14">
+        <v>8.074745212037726</v>
+      </c>
+      <c r="G14">
+        <v>9.516992421592249</v>
+      </c>
+      <c r="H14">
+        <v>4.491373880327842</v>
+      </c>
+      <c r="I14">
+        <v>6.268064715396349</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>12.06092695796559</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0.02716904330406678</v>
+      </c>
+      <c r="D15">
+        <v>0.2397382078950159</v>
+      </c>
+      <c r="E15">
+        <v>3.277904452826903</v>
+      </c>
+      <c r="F15">
+        <v>7.952693072074794</v>
+      </c>
+      <c r="G15">
+        <v>9.372187922502576</v>
+      </c>
+      <c r="H15">
+        <v>4.423570570468712</v>
+      </c>
+      <c r="I15">
+        <v>6.17309558859813</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>11.93801081193845</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0.02438812888074438</v>
+      </c>
+      <c r="D16">
+        <v>0.2175925717775868</v>
+      </c>
+      <c r="E16">
+        <v>2.966825204239981</v>
+      </c>
+      <c r="F16">
+        <v>7.277428396370283</v>
+      </c>
+      <c r="G16">
+        <v>8.571362234402784</v>
+      </c>
+      <c r="H16">
+        <v>4.04881650011481</v>
+      </c>
+      <c r="I16">
+        <v>5.64779297942161</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>11.23323027560713</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0.02280809076751211</v>
+      </c>
+      <c r="D17">
+        <v>0.2047872617694821</v>
+      </c>
+      <c r="E17">
+        <v>2.787966074237332</v>
+      </c>
+      <c r="F17">
+        <v>6.881761910535147</v>
+      </c>
+      <c r="G17">
+        <v>8.102350197685666</v>
+      </c>
+      <c r="H17">
+        <v>3.829530733515696</v>
+      </c>
+      <c r="I17">
+        <v>5.340088756731404</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>10.80051555282938</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0.02193769509102239</v>
+      </c>
+      <c r="D18">
+        <v>0.1976630057651363</v>
+      </c>
+      <c r="E18">
+        <v>2.68875728729536</v>
+      </c>
+      <c r="F18">
+        <v>6.660004570826686</v>
+      </c>
+      <c r="G18">
+        <v>7.839549473124237</v>
+      </c>
+      <c r="H18">
+        <v>3.706727278736764</v>
+      </c>
+      <c r="I18">
+        <v>5.167660082862795</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>10.55149949033279</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0.02164895713505288</v>
+      </c>
+      <c r="D19">
+        <v>0.195288545099956</v>
+      </c>
+      <c r="E19">
+        <v>2.655737564076318</v>
+      </c>
+      <c r="F19">
+        <v>6.585838035291459</v>
+      </c>
+      <c r="G19">
+        <v>7.751665541672594</v>
+      </c>
+      <c r="H19">
+        <v>3.665671816840643</v>
+      </c>
+      <c r="I19">
+        <v>5.109996001716809</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>10.46716465870099</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0.02297215757291227</v>
+      </c>
+      <c r="D20">
+        <v>0.2061245486110295</v>
+      </c>
+      <c r="E20">
+        <v>2.806611874208429</v>
+      </c>
+      <c r="F20">
+        <v>6.923258570026206</v>
+      </c>
+      <c r="G20">
+        <v>8.151532090193882</v>
+      </c>
+      <c r="H20">
+        <v>3.852518429037161</v>
+      </c>
+      <c r="I20">
+        <v>5.372356996794707</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>10.84659223998074</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0.02793370429823483</v>
+      </c>
+      <c r="D21">
+        <v>0.2457413945052167</v>
+      </c>
+      <c r="E21">
+        <v>3.36264309276828</v>
+      </c>
+      <c r="F21">
+        <v>8.133748233021862</v>
+      </c>
+      <c r="G21">
+        <v>9.587001257993677</v>
+      </c>
+      <c r="H21">
+        <v>4.524159040858876</v>
+      </c>
+      <c r="I21">
+        <v>6.31397764272981</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>12.11986155709366</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0.03172098125033784</v>
+      </c>
+      <c r="D22">
+        <v>0.2749400698693591</v>
+      </c>
+      <c r="E22">
+        <v>3.777569727975887</v>
+      </c>
+      <c r="F22">
+        <v>9.002007544875738</v>
+      </c>
+      <c r="G22">
+        <v>10.61776754447584</v>
+      </c>
+      <c r="H22">
+        <v>5.007161874707379</v>
+      </c>
+      <c r="I22">
+        <v>6.989804967162115</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>12.95085643057951</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0.02963658427302107</v>
+      </c>
+      <c r="D23">
+        <v>0.2589791695749284</v>
+      </c>
+      <c r="E23">
+        <v>3.550169455393075</v>
+      </c>
+      <c r="F23">
+        <v>8.529949159981101</v>
+      </c>
+      <c r="G23">
+        <v>10.05722464577821</v>
+      </c>
+      <c r="H23">
+        <v>4.74443292178438</v>
+      </c>
+      <c r="I23">
+        <v>6.622322638952511</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>12.50744471934257</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0.02289786647403957</v>
+      </c>
+      <c r="D24">
+        <v>0.2055192315215066</v>
+      </c>
+      <c r="E24">
+        <v>2.798171004204548</v>
+      </c>
+      <c r="F24">
+        <v>6.904480359725653</v>
+      </c>
+      <c r="G24">
+        <v>8.129275934081079</v>
+      </c>
+      <c r="H24">
+        <v>3.842115650604455</v>
+      </c>
+      <c r="I24">
+        <v>5.357754772787416</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>10.82576172529127</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0.01707308479963388</v>
+      </c>
+      <c r="D25">
+        <v>0.1569043820990004</v>
+      </c>
+      <c r="E25">
+        <v>2.12488844955918</v>
+      </c>
+      <c r="F25">
+        <v>5.36942789626525</v>
+      </c>
+      <c r="G25">
+        <v>6.31082766358503</v>
+      </c>
+      <c r="H25">
+        <v>2.993516312572808</v>
+      </c>
+      <c r="I25">
+        <v>4.164552600522057</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>9.006838561192296</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_6/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_6/res_line/pl_mw.xlsx
@@ -424,25 +424,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.01344450914421813</v>
+        <v>0.003254057381280262</v>
       </c>
       <c r="D2">
-        <v>0.1254286652804666</v>
+        <v>0.03349782192518092</v>
       </c>
       <c r="E2">
-        <v>1.693217759814686</v>
+        <v>0.4333214853875944</v>
       </c>
       <c r="F2">
-        <v>4.348100523675498</v>
+        <v>1.479172793580574</v>
       </c>
       <c r="G2">
-        <v>5.101538936911822</v>
+        <v>1.560190433612945</v>
       </c>
       <c r="H2">
-        <v>2.431071999011465</v>
+        <v>1.022540459300615</v>
       </c>
       <c r="I2">
-        <v>3.371152751250037</v>
+        <v>1.136217968661228</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>7.66312166460591</v>
+        <v>2.873581687696344</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,25 +471,25 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.01123029046443236</v>
+        <v>0.002821308720957205</v>
       </c>
       <c r="D3">
-        <v>0.1057552671966846</v>
+        <v>0.02934618752100704</v>
       </c>
       <c r="E3">
-        <v>1.424824778722254</v>
+        <v>0.3770546871429588</v>
       </c>
       <c r="F3">
-        <v>3.699289516883596</v>
+        <v>1.338957110356432</v>
       </c>
       <c r="G3">
-        <v>4.333300474691953</v>
+        <v>1.390408734690794</v>
       </c>
       <c r="H3">
-        <v>2.074839541658122</v>
+        <v>0.94984346182747</v>
       </c>
       <c r="I3">
-        <v>2.86731387061171</v>
+        <v>1.027328598235442</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>6.74968365211538</v>
+        <v>2.562605684679454</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,25 +518,25 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.009954469255013976</v>
+        <v>0.002556772847142952</v>
       </c>
       <c r="D4">
-        <v>0.0942557672951807</v>
+        <v>0.02681457152093003</v>
       </c>
       <c r="E4">
-        <v>1.268390838363047</v>
+        <v>0.3427093422305489</v>
       </c>
       <c r="F4">
-        <v>3.316475252101327</v>
+        <v>1.253856549063869</v>
       </c>
       <c r="G4">
-        <v>3.879922528112957</v>
+        <v>1.287088664196489</v>
       </c>
       <c r="H4">
-        <v>1.865111599200873</v>
+        <v>0.9059721192090819</v>
       </c>
       <c r="I4">
-        <v>2.570096048374936</v>
+        <v>0.9612294625744369</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>6.187481969423061</v>
+        <v>2.371325805375761</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,25 +565,25 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.009451301082858521</v>
+        <v>0.002449222315316746</v>
       </c>
       <c r="D5">
-        <v>0.08968728018891881</v>
+        <v>0.02578698926833312</v>
       </c>
       <c r="E5">
-        <v>1.206328173410441</v>
+        <v>0.3287593870395966</v>
       </c>
       <c r="F5">
-        <v>3.163683450695345</v>
+        <v>1.219418417453937</v>
       </c>
       <c r="G5">
-        <v>3.698931776873223</v>
+        <v>1.245207559488222</v>
       </c>
       <c r="H5">
-        <v>1.781510220856745</v>
+        <v>0.8882818619925104</v>
       </c>
       <c r="I5">
-        <v>2.45147968198475</v>
+        <v>0.9344778148814328</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>5.958052239810286</v>
+        <v>2.293303068605894</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,25 +612,25 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.009368651490259339</v>
+        <v>0.002431377428539605</v>
       </c>
       <c r="D6">
-        <v>0.08893506493557624</v>
+        <v>0.02561659642684333</v>
       </c>
       <c r="E6">
-        <v>1.196113824896813</v>
+        <v>0.32644564704799</v>
       </c>
       <c r="F6">
-        <v>3.138487890714089</v>
+        <v>1.213714304211692</v>
       </c>
       <c r="G6">
-        <v>3.669083794278095</v>
+        <v>1.238266383928618</v>
       </c>
       <c r="H6">
-        <v>1.767730494983624</v>
+        <v>0.8853556084066838</v>
       </c>
       <c r="I6">
-        <v>2.431920302332912</v>
+        <v>0.9300466622665482</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>5.919936152110608</v>
+        <v>2.280343261403857</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.009947620647242417</v>
+        <v>0.002555321430971702</v>
       </c>
       <c r="D7">
-        <v>0.094193712212153</v>
+        <v>0.02680069713119337</v>
       </c>
       <c r="E7">
-        <v>1.267547507920995</v>
+        <v>0.3425210282276652</v>
       </c>
       <c r="F7">
-        <v>3.314402503187523</v>
+        <v>1.253391139561273</v>
       </c>
       <c r="G7">
-        <v>3.877467391839303</v>
+        <v>1.28652295293557</v>
       </c>
       <c r="H7">
-        <v>1.863977050457606</v>
+        <v>0.905732788443288</v>
       </c>
       <c r="I7">
-        <v>2.568486875002108</v>
+        <v>0.9608679430435103</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>6.184389112219776</v>
+        <v>2.370273851392596</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.01266077504014618</v>
+        <v>0.003104574511947789</v>
       </c>
       <c r="D8">
-        <v>0.1185061164367482</v>
+        <v>0.03206250382704923</v>
       </c>
       <c r="E8">
-        <v>1.598661873572809</v>
+        <v>0.4138756201795815</v>
       </c>
       <c r="F8">
-        <v>4.120696658236369</v>
+        <v>1.430615228876633</v>
       </c>
       <c r="G8">
-        <v>4.832290491767253</v>
+        <v>1.501451066354917</v>
       </c>
       <c r="H8">
-        <v>2.306111781906054</v>
+        <v>0.9973129155281981</v>
       </c>
       <c r="I8">
-        <v>3.194545657294583</v>
+        <v>1.098511222843143</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>7.348453399592813</v>
+        <v>2.766433886209825</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,25 +753,25 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.0189040408156842</v>
+        <v>0.004193089834409136</v>
       </c>
       <c r="D9">
-        <v>0.1724351600639835</v>
+        <v>0.04253537497490356</v>
       </c>
       <c r="E9">
-        <v>2.339041732980647</v>
+        <v>0.555641791949725</v>
       </c>
       <c r="F9">
-        <v>5.865531242081971</v>
+        <v>1.78643372609298</v>
       </c>
       <c r="G9">
-        <v>6.89835254984223</v>
+        <v>1.930770471933329</v>
       </c>
       <c r="H9">
-        <v>3.267369944928021</v>
+        <v>1.183194529484183</v>
       </c>
       <c r="I9">
-        <v>4.550075726719058</v>
+        <v>1.374773752377507</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>9.620230281550675</v>
+        <v>3.540180268007646</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,25 +800,25 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.02457415429230636</v>
+        <v>0.005002855156636343</v>
       </c>
       <c r="D10">
-        <v>0.2190894863240231</v>
+        <v>0.05034663962427999</v>
       </c>
       <c r="E10">
-        <v>2.987780375960668</v>
+        <v>0.6612548373532121</v>
       </c>
       <c r="F10">
-        <v>7.3234337085498</v>
+        <v>2.053503134825348</v>
       </c>
       <c r="G10">
-        <v>8.625905861440799</v>
+        <v>2.251699954541436</v>
       </c>
       <c r="H10">
-        <v>4.074327958866832</v>
+        <v>1.323928293468327</v>
       </c>
       <c r="I10">
-        <v>5.683575033474483</v>
+        <v>1.582080857590313</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.28258838837513</v>
+        <v>4.10623028343673</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,25 +847,25 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.02758447439092393</v>
+        <v>0.00537410761167223</v>
       </c>
       <c r="D11">
-        <v>0.2430042267572361</v>
+        <v>0.05393065389307594</v>
       </c>
       <c r="E11">
-        <v>3.323983532946428</v>
+        <v>0.7096928564080116</v>
       </c>
       <c r="F11">
-        <v>8.05130209268745</v>
+        <v>2.176361795961952</v>
       </c>
       <c r="G11">
-        <v>9.48917769713745</v>
+        <v>2.399058331659887</v>
       </c>
       <c r="H11">
-        <v>4.478348990258439</v>
+        <v>1.38893086000644</v>
       </c>
       <c r="I11">
-        <v>6.249823015249547</v>
+        <v>1.677437594168651</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>12.03742316731751</v>
+        <v>4.363110593465422</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,25 +894,25 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.02881357053192346</v>
+        <v>0.005515163530002809</v>
       </c>
       <c r="D12">
-        <v>0.2526037403097234</v>
+        <v>0.05529264728627936</v>
       </c>
       <c r="E12">
-        <v>3.459737941176357</v>
+        <v>0.7280979333848023</v>
       </c>
       <c r="F12">
-        <v>8.339661184291401</v>
+        <v>2.22309264949709</v>
       </c>
       <c r="G12">
-        <v>9.831358644522368</v>
+        <v>2.455068630089386</v>
       </c>
       <c r="H12">
-        <v>4.638612554044244</v>
+        <v>1.413692841925524</v>
       </c>
       <c r="I12">
-        <v>6.474220800674374</v>
+        <v>1.713706417683738</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>12.32306348037548</v>
+        <v>4.460285735714251</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.02854430894525706</v>
+        <v>0.005484762777086871</v>
       </c>
       <c r="D13">
-        <v>0.2505088094287942</v>
+        <v>0.05499909744310116</v>
       </c>
       <c r="E13">
-        <v>3.430070558411728</v>
+        <v>0.7241311873572442</v>
       </c>
       <c r="F13">
-        <v>8.276919964998228</v>
+        <v>2.213018952958947</v>
       </c>
       <c r="G13">
-        <v>9.756897547954225</v>
+        <v>2.442996318239921</v>
       </c>
       <c r="H13">
-        <v>4.603732650145389</v>
+        <v>1.408353279212292</v>
       </c>
       <c r="I13">
-        <v>6.425392919624187</v>
+        <v>1.705888062043641</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>12.26155457991888</v>
+        <v>4.439361943450422</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,25 +988,25 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.02768359986357893</v>
+        <v>0.005385702608680987</v>
       </c>
       <c r="D14">
-        <v>0.2437819227637021</v>
+        <v>0.05404260727628696</v>
       </c>
       <c r="E14">
-        <v>3.334963746942066</v>
+        <v>0.7112057626940071</v>
       </c>
       <c r="F14">
-        <v>8.074745212037726</v>
+        <v>2.180202163862333</v>
       </c>
       <c r="G14">
-        <v>9.516992421592249</v>
+        <v>2.403662073796795</v>
       </c>
       <c r="H14">
-        <v>4.491373880327842</v>
+        <v>1.390965065424609</v>
       </c>
       <c r="I14">
-        <v>6.268064715396349</v>
+        <v>1.680418212570942</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>12.06092695796559</v>
+        <v>4.371107314139522</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,25 +1035,25 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.02716904330406678</v>
+        <v>0.005325088373172804</v>
       </c>
       <c r="D15">
-        <v>0.2397382078950159</v>
+        <v>0.05345736725726624</v>
       </c>
       <c r="E15">
-        <v>3.277904452826903</v>
+        <v>0.7032969061931595</v>
       </c>
       <c r="F15">
-        <v>7.952693072074794</v>
+        <v>2.160128194102469</v>
       </c>
       <c r="G15">
-        <v>9.372187922502576</v>
+        <v>2.379596291095481</v>
       </c>
       <c r="H15">
-        <v>4.423570570468712</v>
+        <v>1.380333587760163</v>
       </c>
       <c r="I15">
-        <v>6.17309558859813</v>
+        <v>1.664838182651749</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.93801081193845</v>
+        <v>4.329286057409945</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,25 +1082,25 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.02438812888074438</v>
+        <v>0.004978655728134385</v>
       </c>
       <c r="D16">
-        <v>0.2175925717775868</v>
+        <v>0.05011306619284994</v>
       </c>
       <c r="E16">
-        <v>2.966825204239981</v>
+        <v>0.6580977365153871</v>
       </c>
       <c r="F16">
-        <v>7.277428396370283</v>
+        <v>2.045502423609747</v>
       </c>
       <c r="G16">
-        <v>8.571362234402784</v>
+        <v>2.242098281615483</v>
       </c>
       <c r="H16">
-        <v>4.04881650011481</v>
+        <v>1.319700468231588</v>
       </c>
       <c r="I16">
-        <v>5.64779297942161</v>
+        <v>1.575870917717282</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.23323027560713</v>
+        <v>4.089429168003562</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,25 +1129,25 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.02280809076751211</v>
+        <v>0.004766908780190704</v>
       </c>
       <c r="D17">
-        <v>0.2047872617694821</v>
+        <v>0.04806957234949039</v>
       </c>
       <c r="E17">
-        <v>2.787966074237332</v>
+        <v>0.6304746509789823</v>
       </c>
       <c r="F17">
-        <v>6.881761910535147</v>
+        <v>1.975540707466706</v>
       </c>
       <c r="G17">
-        <v>8.102350197685666</v>
+        <v>2.158106315897328</v>
       </c>
       <c r="H17">
-        <v>3.829530733515696</v>
+        <v>1.282759550197568</v>
       </c>
       <c r="I17">
-        <v>5.340088756731404</v>
+        <v>1.521567415056467</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>10.80051555282938</v>
+        <v>3.94211849063862</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,25 +1176,25 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.02193769509102239</v>
+        <v>0.004645385761119059</v>
       </c>
       <c r="D18">
-        <v>0.1976630057651363</v>
+        <v>0.04689706723252129</v>
       </c>
       <c r="E18">
-        <v>2.68875728729536</v>
+        <v>0.6146233109359684</v>
       </c>
       <c r="F18">
-        <v>6.660004570826686</v>
+        <v>1.935428655982889</v>
       </c>
       <c r="G18">
-        <v>7.839549473124237</v>
+        <v>2.109924162734671</v>
       </c>
       <c r="H18">
-        <v>3.706727278736764</v>
+        <v>1.261604197833208</v>
       </c>
       <c r="I18">
-        <v>5.167660082862795</v>
+        <v>1.490431971508826</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>10.55149949033279</v>
+        <v>3.857331695637754</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,25 +1223,25 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.02164895713505288</v>
+        <v>0.004604284556602778</v>
       </c>
       <c r="D19">
-        <v>0.195288545099956</v>
+        <v>0.04650055608523473</v>
       </c>
       <c r="E19">
-        <v>2.655737564076318</v>
+        <v>0.6092624483873408</v>
       </c>
       <c r="F19">
-        <v>6.585838035291459</v>
+        <v>1.921869092488407</v>
       </c>
       <c r="G19">
-        <v>7.751665541672594</v>
+        <v>2.093632089949551</v>
       </c>
       <c r="H19">
-        <v>3.665671816840643</v>
+        <v>1.254457003917366</v>
       </c>
       <c r="I19">
-        <v>5.109996001716809</v>
+        <v>1.479906719779933</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>10.46716465870099</v>
+        <v>3.828614786364199</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,25 +1270,25 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.02297215757291227</v>
+        <v>0.004789421446698583</v>
       </c>
       <c r="D20">
-        <v>0.2061245486110295</v>
+        <v>0.04828680705101362</v>
       </c>
       <c r="E20">
-        <v>2.806611874208429</v>
+        <v>0.6334113316135728</v>
       </c>
       <c r="F20">
-        <v>6.923258570026206</v>
+        <v>1.982974922312167</v>
       </c>
       <c r="G20">
-        <v>8.151532090193882</v>
+        <v>2.167034087632373</v>
       </c>
       <c r="H20">
-        <v>3.852518429037161</v>
+        <v>1.286682402595602</v>
       </c>
       <c r="I20">
-        <v>5.372356996794707</v>
+        <v>1.527337864055909</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>10.84659223998074</v>
+        <v>3.95780600327754</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,25 +1317,25 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.02793370429823483</v>
+        <v>0.005414785755526452</v>
       </c>
       <c r="D21">
-        <v>0.2457413945052167</v>
+        <v>0.05432341797150286</v>
       </c>
       <c r="E21">
-        <v>3.36264309276828</v>
+        <v>0.7150005244286319</v>
       </c>
       <c r="F21">
-        <v>8.133748233021862</v>
+        <v>2.189835550321845</v>
       </c>
       <c r="G21">
-        <v>9.587001257993677</v>
+        <v>2.415209724981537</v>
       </c>
       <c r="H21">
-        <v>4.524159040858876</v>
+        <v>1.396068371685544</v>
       </c>
       <c r="I21">
-        <v>6.31397764272981</v>
+        <v>1.687894936110695</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>12.11986155709366</v>
+        <v>4.391158149571083</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,25 +1364,25 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.03172098125033784</v>
+        <v>0.005826268009926139</v>
       </c>
       <c r="D22">
-        <v>0.2749400698693591</v>
+        <v>0.0582968932927912</v>
       </c>
       <c r="E22">
-        <v>3.777569727975887</v>
+        <v>0.7686918527812026</v>
       </c>
       <c r="F22">
-        <v>9.002007544875738</v>
+        <v>2.326242151678684</v>
       </c>
       <c r="G22">
-        <v>10.61776754447584</v>
+        <v>2.578630384526264</v>
       </c>
       <c r="H22">
-        <v>5.007161874707379</v>
+        <v>1.468417554920961</v>
       </c>
       <c r="I22">
-        <v>6.989804967162115</v>
+        <v>1.793760671793933</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>12.95085643057951</v>
+        <v>4.67379181795809</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,25 +1411,25 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.02963658427302107</v>
+        <v>0.005606379835651154</v>
       </c>
       <c r="D23">
-        <v>0.2589791695749284</v>
+        <v>0.05617345905976379</v>
       </c>
       <c r="E23">
-        <v>3.550169455393075</v>
+        <v>0.7400000809948182</v>
       </c>
       <c r="F23">
-        <v>8.529949159981101</v>
+        <v>2.253325073928409</v>
       </c>
       <c r="G23">
-        <v>10.05722464577821</v>
+        <v>2.491293544283394</v>
       </c>
       <c r="H23">
-        <v>4.74443292178438</v>
+        <v>1.429722897787656</v>
       </c>
       <c r="I23">
-        <v>6.622322638952511</v>
+        <v>1.737170097874923</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>12.50744471934257</v>
+        <v>4.523002190001307</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,25 +1458,25 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.02289786647403957</v>
+        <v>0.004779242810606377</v>
       </c>
       <c r="D24">
-        <v>0.2055192315215066</v>
+        <v>0.04818858802545378</v>
       </c>
       <c r="E24">
-        <v>2.798171004204548</v>
+        <v>0.6320835667387712</v>
       </c>
       <c r="F24">
-        <v>6.904480359725653</v>
+        <v>1.979613572332795</v>
       </c>
       <c r="G24">
-        <v>8.129275934081079</v>
+        <v>2.162997512968161</v>
       </c>
       <c r="H24">
-        <v>3.842115650604455</v>
+        <v>1.284908624568857</v>
       </c>
       <c r="I24">
-        <v>5.357754772787416</v>
+        <v>1.524728781897011</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>10.82576172529127</v>
+        <v>3.950713976768498</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,25 +1505,25 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.01707308479963388</v>
+        <v>0.003897082456433054</v>
       </c>
       <c r="D25">
-        <v>0.1569043820990004</v>
+        <v>0.03968333960929726</v>
       </c>
       <c r="E25">
-        <v>2.12488844955918</v>
+        <v>0.5170591309376249</v>
       </c>
       <c r="F25">
-        <v>5.36942789626525</v>
+        <v>1.689227532280825</v>
       </c>
       <c r="G25">
-        <v>6.31082766358503</v>
+        <v>1.813714311031958</v>
       </c>
       <c r="H25">
-        <v>2.993516312572808</v>
+        <v>1.13220129104684</v>
       </c>
       <c r="I25">
-        <v>4.164552600522057</v>
+        <v>1.299310391377247</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>9.006838561192296</v>
+        <v>3.331249627311138</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_6/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_6/res_line/pl_mw.xlsx
@@ -424,25 +424,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.003254057381280262</v>
+        <v>0.01344450914392681</v>
       </c>
       <c r="D2">
-        <v>0.03349782192518092</v>
+        <v>0.1254286652799834</v>
       </c>
       <c r="E2">
-        <v>0.4333214853875944</v>
+        <v>1.693217759814715</v>
       </c>
       <c r="F2">
-        <v>1.479172793580574</v>
+        <v>4.348100523675527</v>
       </c>
       <c r="G2">
-        <v>1.560190433612945</v>
+        <v>5.101538936911766</v>
       </c>
       <c r="H2">
-        <v>1.022540459300615</v>
+        <v>2.431071999011465</v>
       </c>
       <c r="I2">
-        <v>1.136217968661228</v>
+        <v>3.371152751250051</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>2.873581687696344</v>
+        <v>7.66312166460591</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,25 +471,25 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.002821308720957205</v>
+        <v>0.01123029046470236</v>
       </c>
       <c r="D3">
-        <v>0.02934618752100704</v>
+        <v>0.1057552671966846</v>
       </c>
       <c r="E3">
-        <v>0.3770546871429588</v>
+        <v>1.424824778722268</v>
       </c>
       <c r="F3">
-        <v>1.338957110356432</v>
+        <v>3.699289516883596</v>
       </c>
       <c r="G3">
-        <v>1.390408734690794</v>
+        <v>4.333300474691896</v>
       </c>
       <c r="H3">
-        <v>0.94984346182747</v>
+        <v>2.074839541658235</v>
       </c>
       <c r="I3">
-        <v>1.027328598235442</v>
+        <v>2.86731387061171</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>2.562605684679454</v>
+        <v>6.749683652115209</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,25 +518,25 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.002556772847142952</v>
+        <v>0.009954469254974896</v>
       </c>
       <c r="D4">
-        <v>0.02681457152093003</v>
+        <v>0.09425576729507412</v>
       </c>
       <c r="E4">
-        <v>0.3427093422305489</v>
+        <v>1.268390838363075</v>
       </c>
       <c r="F4">
-        <v>1.253856549063869</v>
+        <v>3.316475252101355</v>
       </c>
       <c r="G4">
-        <v>1.287088664196489</v>
+        <v>3.879922528113013</v>
       </c>
       <c r="H4">
-        <v>0.9059721192090819</v>
+        <v>1.865111599200844</v>
       </c>
       <c r="I4">
-        <v>0.9612294625744369</v>
+        <v>2.570096048374936</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>2.371325805375761</v>
+        <v>6.187481969422947</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,25 +565,25 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.002449222315316746</v>
+        <v>0.009451301082854968</v>
       </c>
       <c r="D5">
-        <v>0.02578698926833312</v>
+        <v>0.08968728018891881</v>
       </c>
       <c r="E5">
-        <v>0.3287593870395966</v>
+        <v>1.206328173410427</v>
       </c>
       <c r="F5">
-        <v>1.219418417453937</v>
+        <v>3.163683450695345</v>
       </c>
       <c r="G5">
-        <v>1.245207559488222</v>
+        <v>3.698931776873337</v>
       </c>
       <c r="H5">
-        <v>0.8882818619925104</v>
+        <v>1.781510220856603</v>
       </c>
       <c r="I5">
-        <v>0.9344778148814328</v>
+        <v>2.45147968198475</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2.293303068605894</v>
+        <v>5.958052239810399</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,25 +612,25 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.002431377428539605</v>
+        <v>0.009368651490230917</v>
       </c>
       <c r="D6">
-        <v>0.02561659642684333</v>
+        <v>0.08893506493534176</v>
       </c>
       <c r="E6">
-        <v>0.32644564704799</v>
+        <v>1.196113824896827</v>
       </c>
       <c r="F6">
-        <v>1.213714304211692</v>
+        <v>3.13848789071406</v>
       </c>
       <c r="G6">
-        <v>1.238266383928618</v>
+        <v>3.669083794278066</v>
       </c>
       <c r="H6">
-        <v>0.8853556084066838</v>
+        <v>1.767730494983709</v>
       </c>
       <c r="I6">
-        <v>0.9300466622665482</v>
+        <v>2.431920302332927</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>2.280343261403857</v>
+        <v>5.919936152110608</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.002555321430971702</v>
+        <v>0.009947620647501765</v>
       </c>
       <c r="D7">
-        <v>0.02680069713119337</v>
+        <v>0.09419371221238038</v>
       </c>
       <c r="E7">
-        <v>0.3425210282276652</v>
+        <v>1.267547507920995</v>
       </c>
       <c r="F7">
-        <v>1.253391139561273</v>
+        <v>3.314402503187551</v>
       </c>
       <c r="G7">
-        <v>1.28652295293557</v>
+        <v>3.877467391839332</v>
       </c>
       <c r="H7">
-        <v>0.905732788443288</v>
+        <v>1.863977050457606</v>
       </c>
       <c r="I7">
-        <v>0.9608679430435103</v>
+        <v>2.568486875002122</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>2.370273851392596</v>
+        <v>6.184389112219662</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.003104574511947789</v>
+        <v>0.0126607750396559</v>
       </c>
       <c r="D8">
-        <v>0.03206250382704923</v>
+        <v>0.1185061164367482</v>
       </c>
       <c r="E8">
-        <v>0.4138756201795815</v>
+        <v>1.598661873572766</v>
       </c>
       <c r="F8">
-        <v>1.430615228876633</v>
+        <v>4.120696658236341</v>
       </c>
       <c r="G8">
-        <v>1.501451066354917</v>
+        <v>4.832290491767367</v>
       </c>
       <c r="H8">
-        <v>0.9973129155281981</v>
+        <v>2.306111781906168</v>
       </c>
       <c r="I8">
-        <v>1.098511222843143</v>
+        <v>3.194545657294583</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>2.766433886209825</v>
+        <v>7.348453399592699</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,25 +753,25 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.004193089834409136</v>
+        <v>0.01890404081569486</v>
       </c>
       <c r="D9">
-        <v>0.04253537497490356</v>
+        <v>0.1724351600640261</v>
       </c>
       <c r="E9">
-        <v>0.555641791949725</v>
+        <v>2.339041732980661</v>
       </c>
       <c r="F9">
-        <v>1.78643372609298</v>
+        <v>5.865531242081971</v>
       </c>
       <c r="G9">
-        <v>1.930770471933329</v>
+        <v>6.898352549842116</v>
       </c>
       <c r="H9">
-        <v>1.183194529484183</v>
+        <v>3.267369944928021</v>
       </c>
       <c r="I9">
-        <v>1.374773752377507</v>
+        <v>4.550075726719029</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>3.540180268007646</v>
+        <v>9.620230281550619</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,25 +800,25 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.005002855156636343</v>
+        <v>0.02457415429253018</v>
       </c>
       <c r="D10">
-        <v>0.05034663962427999</v>
+        <v>0.2190894863238384</v>
       </c>
       <c r="E10">
-        <v>0.6612548373532121</v>
+        <v>2.987780375960583</v>
       </c>
       <c r="F10">
-        <v>2.053503134825348</v>
+        <v>7.323433708549743</v>
       </c>
       <c r="G10">
-        <v>2.251699954541436</v>
+        <v>8.625905861440685</v>
       </c>
       <c r="H10">
-        <v>1.323928293468327</v>
+        <v>4.074327958866775</v>
       </c>
       <c r="I10">
-        <v>1.582080857590313</v>
+        <v>5.683575033474398</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>4.10623028343673</v>
+        <v>11.28258838837525</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,25 +847,25 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.00537410761167223</v>
+        <v>0.02758447439112999</v>
       </c>
       <c r="D11">
-        <v>0.05393065389307594</v>
+        <v>0.2430042267574066</v>
       </c>
       <c r="E11">
-        <v>0.7096928564080116</v>
+        <v>3.323983532946443</v>
       </c>
       <c r="F11">
-        <v>2.176361795961952</v>
+        <v>8.051302092687393</v>
       </c>
       <c r="G11">
-        <v>2.399058331659887</v>
+        <v>9.489177697137393</v>
       </c>
       <c r="H11">
-        <v>1.38893086000644</v>
+        <v>4.478348990258439</v>
       </c>
       <c r="I11">
-        <v>1.677437594168651</v>
+        <v>6.249823015249547</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>4.363110593465422</v>
+        <v>12.03742316731768</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,25 +894,25 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.005515163530002809</v>
+        <v>0.02881357053212952</v>
       </c>
       <c r="D12">
-        <v>0.05529264728627936</v>
+        <v>0.2526037403099082</v>
       </c>
       <c r="E12">
-        <v>0.7280979333848023</v>
+        <v>3.4597379411763</v>
       </c>
       <c r="F12">
-        <v>2.22309264949709</v>
+        <v>8.339661184291344</v>
       </c>
       <c r="G12">
-        <v>2.455068630089386</v>
+        <v>9.831358644522254</v>
       </c>
       <c r="H12">
-        <v>1.413692841925524</v>
+        <v>4.638612554044187</v>
       </c>
       <c r="I12">
-        <v>1.713706417683738</v>
+        <v>6.474220800674374</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>4.460285735714251</v>
+        <v>12.32306348037548</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.005484762777086871</v>
+        <v>0.02854430894561588</v>
       </c>
       <c r="D13">
-        <v>0.05499909744310116</v>
+        <v>0.2505088094289931</v>
       </c>
       <c r="E13">
-        <v>0.7241311873572442</v>
+        <v>3.430070558411686</v>
       </c>
       <c r="F13">
-        <v>2.213018952958947</v>
+        <v>8.276919964998228</v>
       </c>
       <c r="G13">
-        <v>2.442996318239921</v>
+        <v>9.756897547954281</v>
       </c>
       <c r="H13">
-        <v>1.408353279212292</v>
+        <v>4.603732650145389</v>
       </c>
       <c r="I13">
-        <v>1.705888062043641</v>
+        <v>6.42539291962413</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>4.439361943450422</v>
+        <v>12.26155457991871</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,25 +988,25 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.005385702608680987</v>
+        <v>0.02768359986343683</v>
       </c>
       <c r="D14">
-        <v>0.05404260727628696</v>
+        <v>0.2437819227637164</v>
       </c>
       <c r="E14">
-        <v>0.7112057626940071</v>
+        <v>3.33496374694208</v>
       </c>
       <c r="F14">
-        <v>2.180202163862333</v>
+        <v>8.074745212037669</v>
       </c>
       <c r="G14">
-        <v>2.403662073796795</v>
+        <v>9.516992421592306</v>
       </c>
       <c r="H14">
-        <v>1.390965065424609</v>
+        <v>4.491373880327785</v>
       </c>
       <c r="I14">
-        <v>1.680418212570942</v>
+        <v>6.268064715396321</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>4.371107314139522</v>
+        <v>12.06092695796553</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,25 +1035,25 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.005325088373172804</v>
+        <v>0.02716904330408099</v>
       </c>
       <c r="D15">
-        <v>0.05345736725726624</v>
+        <v>0.2397382078953711</v>
       </c>
       <c r="E15">
-        <v>0.7032969061931595</v>
+        <v>3.277904452826832</v>
       </c>
       <c r="F15">
-        <v>2.160128194102469</v>
+        <v>7.952693072074709</v>
       </c>
       <c r="G15">
-        <v>2.379596291095481</v>
+        <v>9.372187922502633</v>
       </c>
       <c r="H15">
-        <v>1.380333587760163</v>
+        <v>4.423570570468655</v>
       </c>
       <c r="I15">
-        <v>1.664838182651749</v>
+        <v>6.173095588598073</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>4.329286057409945</v>
+        <v>11.93801081193851</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,25 +1082,25 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.004978655728134385</v>
+        <v>0.02438812888074438</v>
       </c>
       <c r="D16">
-        <v>0.05011306619284994</v>
+        <v>0.2175925717771747</v>
       </c>
       <c r="E16">
-        <v>0.6580977365153871</v>
+        <v>2.96682520424001</v>
       </c>
       <c r="F16">
-        <v>2.045502423609747</v>
+        <v>7.277428396370311</v>
       </c>
       <c r="G16">
-        <v>2.242098281615483</v>
+        <v>8.571362234403011</v>
       </c>
       <c r="H16">
-        <v>1.319700468231588</v>
+        <v>4.048816500114867</v>
       </c>
       <c r="I16">
-        <v>1.575870917717282</v>
+        <v>5.647792979421695</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>4.089429168003562</v>
+        <v>11.23323027560724</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,25 +1129,25 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.004766908780190704</v>
+        <v>0.02280809076772172</v>
       </c>
       <c r="D17">
-        <v>0.04806957234949039</v>
+        <v>0.204787261769269</v>
       </c>
       <c r="E17">
-        <v>0.6304746509789823</v>
+        <v>2.787966074237318</v>
       </c>
       <c r="F17">
-        <v>1.975540707466706</v>
+        <v>6.881761910535204</v>
       </c>
       <c r="G17">
-        <v>2.158106315897328</v>
+        <v>8.102350197685496</v>
       </c>
       <c r="H17">
-        <v>1.282759550197568</v>
+        <v>3.829530733515639</v>
       </c>
       <c r="I17">
-        <v>1.521567415056467</v>
+        <v>5.340088756731433</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>3.94211849063862</v>
+        <v>10.80051555282949</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,25 +1176,25 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.004645385761119059</v>
+        <v>0.02193769509134924</v>
       </c>
       <c r="D18">
-        <v>0.04689706723252129</v>
+        <v>0.1976630057654916</v>
       </c>
       <c r="E18">
-        <v>0.6146233109359684</v>
+        <v>2.68875728729536</v>
       </c>
       <c r="F18">
-        <v>1.935428655982889</v>
+        <v>6.660004570826743</v>
       </c>
       <c r="G18">
-        <v>2.109924162734671</v>
+        <v>7.83954947312418</v>
       </c>
       <c r="H18">
-        <v>1.261604197833208</v>
+        <v>3.706727278736707</v>
       </c>
       <c r="I18">
-        <v>1.490431971508826</v>
+        <v>5.167660082862824</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>3.857331695637754</v>
+        <v>10.55149949033279</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,25 +1223,25 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.004604284556602778</v>
+        <v>0.02164895713503157</v>
       </c>
       <c r="D19">
-        <v>0.04650055608523473</v>
+        <v>0.1952885450996007</v>
       </c>
       <c r="E19">
-        <v>0.6092624483873408</v>
+        <v>2.65573756407619</v>
       </c>
       <c r="F19">
-        <v>1.921869092488407</v>
+        <v>6.585838035291545</v>
       </c>
       <c r="G19">
-        <v>2.093632089949551</v>
+        <v>7.751665541672651</v>
       </c>
       <c r="H19">
-        <v>1.254457003917366</v>
+        <v>3.6656718168407</v>
       </c>
       <c r="I19">
-        <v>1.479906719779933</v>
+        <v>5.109996001716837</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>3.828614786364199</v>
+        <v>10.46716465870088</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,25 +1270,25 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.004789421446698583</v>
+        <v>0.02297215757345228</v>
       </c>
       <c r="D20">
-        <v>0.04828680705101362</v>
+        <v>0.2061245486108305</v>
       </c>
       <c r="E20">
-        <v>0.6334113316135728</v>
+        <v>2.806611874208357</v>
       </c>
       <c r="F20">
-        <v>1.982974922312167</v>
+        <v>6.923258570026263</v>
       </c>
       <c r="G20">
-        <v>2.167034087632373</v>
+        <v>8.151532090194053</v>
       </c>
       <c r="H20">
-        <v>1.286682402595602</v>
+        <v>3.852518429037161</v>
       </c>
       <c r="I20">
-        <v>1.527337864055909</v>
+        <v>5.372356996794679</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>3.95780600327754</v>
+        <v>10.84659223998074</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,25 +1317,25 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.005414785755526452</v>
+        <v>0.02793370429822417</v>
       </c>
       <c r="D21">
-        <v>0.05432341797150286</v>
+        <v>0.2457413945054014</v>
       </c>
       <c r="E21">
-        <v>0.7150005244286319</v>
+        <v>3.362643092768252</v>
       </c>
       <c r="F21">
-        <v>2.189835550321845</v>
+        <v>8.13374823302189</v>
       </c>
       <c r="G21">
-        <v>2.415209724981537</v>
+        <v>9.587001257993734</v>
       </c>
       <c r="H21">
-        <v>1.396068371685544</v>
+        <v>4.524159040858933</v>
       </c>
       <c r="I21">
-        <v>1.687894936110695</v>
+        <v>6.31397764272981</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>4.391158149571083</v>
+        <v>12.11986155709366</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,25 +1364,25 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.005826268009926139</v>
+        <v>0.03172098124994704</v>
       </c>
       <c r="D22">
-        <v>0.0582968932927912</v>
+        <v>0.2749400698693591</v>
       </c>
       <c r="E22">
-        <v>0.7686918527812026</v>
+        <v>3.777569727975902</v>
       </c>
       <c r="F22">
-        <v>2.326242151678684</v>
+        <v>9.002007544875852</v>
       </c>
       <c r="G22">
-        <v>2.578630384526264</v>
+        <v>10.61776754447595</v>
       </c>
       <c r="H22">
-        <v>1.468417554920961</v>
+        <v>5.007161874707379</v>
       </c>
       <c r="I22">
-        <v>1.793760671793933</v>
+        <v>6.989804967162229</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>4.67379181795809</v>
+        <v>12.95085643057945</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,25 +1411,25 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.005606379835651154</v>
+        <v>0.02963658427302107</v>
       </c>
       <c r="D23">
-        <v>0.05617345905976379</v>
+        <v>0.2589791695747579</v>
       </c>
       <c r="E23">
-        <v>0.7400000809948182</v>
+        <v>3.550169455393032</v>
       </c>
       <c r="F23">
-        <v>2.253325073928409</v>
+        <v>8.529949159981072</v>
       </c>
       <c r="G23">
-        <v>2.491293544283394</v>
+        <v>10.05722464577821</v>
       </c>
       <c r="H23">
-        <v>1.429722897787656</v>
+        <v>4.74443292178438</v>
       </c>
       <c r="I23">
-        <v>1.737170097874923</v>
+        <v>6.622322638952483</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>4.523002190001307</v>
+        <v>12.50744471934257</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,25 +1458,25 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.004779242810606377</v>
+        <v>0.02289786647425629</v>
       </c>
       <c r="D24">
-        <v>0.04818858802545378</v>
+        <v>0.2055192315218335</v>
       </c>
       <c r="E24">
-        <v>0.6320835667387712</v>
+        <v>2.798171004204477</v>
       </c>
       <c r="F24">
-        <v>1.979613572332795</v>
+        <v>6.904480359725596</v>
       </c>
       <c r="G24">
-        <v>2.162997512968161</v>
+        <v>8.129275934081022</v>
       </c>
       <c r="H24">
-        <v>1.284908624568857</v>
+        <v>3.842115650604455</v>
       </c>
       <c r="I24">
-        <v>1.524728781897011</v>
+        <v>5.357754772787416</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>3.950713976768498</v>
+        <v>10.82576172529139</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,25 +1505,25 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.003897082456433054</v>
+        <v>0.01707308479993941</v>
       </c>
       <c r="D25">
-        <v>0.03968333960929726</v>
+        <v>0.1569043820991425</v>
       </c>
       <c r="E25">
-        <v>0.5170591309376249</v>
+        <v>2.12488844955918</v>
       </c>
       <c r="F25">
-        <v>1.689227532280825</v>
+        <v>5.36942789626525</v>
       </c>
       <c r="G25">
-        <v>1.813714311031958</v>
+        <v>6.310827663585371</v>
       </c>
       <c r="H25">
-        <v>1.13220129104684</v>
+        <v>2.993516312572808</v>
       </c>
       <c r="I25">
-        <v>1.299310391377247</v>
+        <v>4.164552600522057</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>3.331249627311138</v>
+        <v>9.006838561192296</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_6/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_6/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,8 +415,14 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -424,31 +430,31 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.01344450914392681</v>
+        <v>0.2004438806249382</v>
       </c>
       <c r="D2">
-        <v>0.1254286652799834</v>
+        <v>0.1230197792369978</v>
       </c>
       <c r="E2">
-        <v>1.693217759814715</v>
+        <v>0.1778664428472538</v>
       </c>
       <c r="F2">
-        <v>4.348100523675527</v>
+        <v>3.873030632736629</v>
       </c>
       <c r="G2">
-        <v>5.101538936911766</v>
+        <v>4.425363071421145</v>
       </c>
       <c r="H2">
-        <v>2.431071999011465</v>
+        <v>0.01244390999646072</v>
       </c>
       <c r="I2">
-        <v>3.371152751250051</v>
+        <v>0.02887833550078334</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>2.315271587001803</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>3.378946000037317</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,13 +463,19 @@
         <v>0</v>
       </c>
       <c r="N2">
+        <v>0.3050065738110561</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
         <v>7.66312166460591</v>
       </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -471,31 +483,31 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.01123029046470236</v>
+        <v>0.1801632628528367</v>
       </c>
       <c r="D3">
-        <v>0.1057552671966846</v>
+        <v>0.1094339501377704</v>
       </c>
       <c r="E3">
-        <v>1.424824778722268</v>
+        <v>0.1577630232904923</v>
       </c>
       <c r="F3">
-        <v>3.699289516883596</v>
+        <v>3.400516123168813</v>
       </c>
       <c r="G3">
-        <v>4.333300474691896</v>
+        <v>3.875162083303849</v>
       </c>
       <c r="H3">
-        <v>2.074839541658235</v>
+        <v>0.007289955110980517</v>
       </c>
       <c r="I3">
-        <v>2.86731387061171</v>
+        <v>0.01911322549123495</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>2.051838049147676</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>2.978010692892653</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,13 +516,19 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>6.749683652115209</v>
+        <v>0.2683220878926562</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>6.74968365211538</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -518,31 +536,31 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.009954469254974896</v>
+        <v>0.1678382228025583</v>
       </c>
       <c r="D4">
-        <v>0.09425576729507412</v>
+        <v>0.10104799008203</v>
       </c>
       <c r="E4">
-        <v>1.268390838363075</v>
+        <v>0.1455065768440278</v>
       </c>
       <c r="F4">
-        <v>3.316475252101355</v>
+        <v>3.112215706133867</v>
       </c>
       <c r="G4">
-        <v>3.879922528113013</v>
+        <v>3.539155952900899</v>
       </c>
       <c r="H4">
-        <v>1.865111599200844</v>
+        <v>0.004743603576459421</v>
       </c>
       <c r="I4">
-        <v>2.570096048374936</v>
+        <v>0.0140263958270701</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>1.891027984533025</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>2.732766314784655</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,13 +569,19 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>6.187481969422947</v>
+        <v>0.2460199054846584</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>6.187481969423061</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -565,31 +589,31 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.009451301082854968</v>
+        <v>0.1625846817830379</v>
       </c>
       <c r="D5">
-        <v>0.08968728018891881</v>
+        <v>0.09743393214939999</v>
       </c>
       <c r="E5">
-        <v>1.206328173410427</v>
+        <v>0.1404050244677713</v>
       </c>
       <c r="F5">
-        <v>3.163683450695345</v>
+        <v>2.992262946953218</v>
       </c>
       <c r="G5">
-        <v>3.698931776873337</v>
+        <v>3.399047860127666</v>
       </c>
       <c r="H5">
-        <v>1.781510220856603</v>
+        <v>0.003839528241933676</v>
       </c>
       <c r="I5">
-        <v>2.45147968198475</v>
+        <v>0.01218988637522322</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1.823929081221024</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>2.629875121227769</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,13 +622,19 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>5.958052239810399</v>
+        <v>0.237018033194687</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>5.958052239810286</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -612,31 +642,31 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.009368651490230917</v>
+        <v>0.1614082569463307</v>
       </c>
       <c r="D6">
-        <v>0.08893506493534176</v>
+        <v>0.09660849988912901</v>
       </c>
       <c r="E6">
-        <v>1.196113824896827</v>
+        <v>0.1394102821949801</v>
       </c>
       <c r="F6">
-        <v>3.13848789071406</v>
+        <v>2.968907464913656</v>
       </c>
       <c r="G6">
-        <v>3.669083794278066</v>
+        <v>3.37148831734936</v>
       </c>
       <c r="H6">
-        <v>1.767730494983709</v>
+        <v>0.003687739137777202</v>
       </c>
       <c r="I6">
-        <v>2.431920302332927</v>
+        <v>0.01194045034359448</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>1.810657675114783</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>2.608996422065488</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,13 +675,19 @@
         <v>0</v>
       </c>
       <c r="N6">
+        <v>0.2355772936529164</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
         <v>5.919936152110608</v>
       </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -659,31 +695,31 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.009947620647501765</v>
+        <v>0.1669277168862067</v>
       </c>
       <c r="D7">
-        <v>0.09419371221238038</v>
+        <v>0.1003829849994702</v>
       </c>
       <c r="E7">
-        <v>1.267547507920995</v>
+        <v>0.1450298431365056</v>
       </c>
       <c r="F7">
-        <v>3.314402503187551</v>
+        <v>3.101106162412009</v>
       </c>
       <c r="G7">
-        <v>3.877467391839332</v>
+        <v>3.525423017613207</v>
       </c>
       <c r="H7">
-        <v>1.863977050457606</v>
+        <v>0.004699964738063667</v>
       </c>
       <c r="I7">
-        <v>2.568486875002122</v>
+        <v>0.0140965973229612</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>1.88425065657816</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>2.720942361325086</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,13 +728,19 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>6.184389112219662</v>
+        <v>0.2460385491647941</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>6.184389112219776</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -706,31 +748,31 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.0126607750396559</v>
+        <v>0.1922806115081386</v>
       </c>
       <c r="D8">
-        <v>0.1185061164367482</v>
+        <v>0.1175144685894196</v>
       </c>
       <c r="E8">
-        <v>1.598661873572766</v>
+        <v>0.17035870477768</v>
       </c>
       <c r="F8">
-        <v>4.120696658236341</v>
+        <v>3.696875790990958</v>
       </c>
       <c r="G8">
-        <v>4.832290491767367</v>
+        <v>4.219243353305075</v>
       </c>
       <c r="H8">
-        <v>2.306111781906168</v>
+        <v>0.01046992222131343</v>
       </c>
       <c r="I8">
-        <v>3.194545657294583</v>
+        <v>0.02536915866730105</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>2.216307566343261</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>3.226408732843723</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,13 +781,19 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>7.348453399592699</v>
+        <v>0.2924853783505057</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>7.348453399592813</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -753,31 +801,31 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.01890404081569486</v>
+        <v>0.2451890301968973</v>
       </c>
       <c r="D9">
-        <v>0.1724351600640261</v>
+        <v>0.1519834883884243</v>
       </c>
       <c r="E9">
-        <v>2.339041732980661</v>
+        <v>0.2218511072362439</v>
       </c>
       <c r="F9">
-        <v>5.865531242081971</v>
+        <v>4.902152658636936</v>
       </c>
       <c r="G9">
-        <v>6.898352549842116</v>
+        <v>5.621745076194827</v>
       </c>
       <c r="H9">
-        <v>3.267369944928021</v>
+        <v>0.02745814603666341</v>
       </c>
       <c r="I9">
-        <v>4.550075726719029</v>
+        <v>0.05571919934287983</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>2.888422719107666</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>4.248082443535679</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,13 +834,19 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>9.620230281550619</v>
+        <v>0.3856554473085936</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>9.620230281550789</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -800,31 +854,31 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.02457415429253018</v>
+        <v>0.2822794359319261</v>
       </c>
       <c r="D10">
-        <v>0.2190894863238384</v>
+        <v>0.1737802709968577</v>
       </c>
       <c r="E10">
-        <v>2.987780375960583</v>
+        <v>0.2525897259376322</v>
       </c>
       <c r="F10">
-        <v>7.323433708549743</v>
+        <v>5.752101111006624</v>
       </c>
       <c r="G10">
-        <v>8.625905861440685</v>
+        <v>6.604324413584322</v>
       </c>
       <c r="H10">
-        <v>4.074327958866775</v>
+        <v>0.04362263216881379</v>
       </c>
       <c r="I10">
-        <v>5.683575033474398</v>
+        <v>0.08375150494402916</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>3.358666991444693</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>4.9542740625362</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,13 +887,19 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.28258838837525</v>
+        <v>0.4383945098371811</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>11.28258838837513</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -847,31 +907,31 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.02758447439112999</v>
+        <v>0.271889233104595</v>
       </c>
       <c r="D11">
-        <v>0.2430042267574066</v>
+        <v>0.1556169691886282</v>
       </c>
       <c r="E11">
-        <v>3.323983532946443</v>
+        <v>0.2025169057719154</v>
       </c>
       <c r="F11">
-        <v>8.051302092687393</v>
+        <v>5.688588704562733</v>
       </c>
       <c r="G11">
-        <v>9.489177697137393</v>
+        <v>6.48996870743224</v>
       </c>
       <c r="H11">
-        <v>4.478348990258439</v>
+        <v>0.06303570869442865</v>
       </c>
       <c r="I11">
-        <v>6.249823015249547</v>
+        <v>0.08968847672161573</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>3.295858529440238</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>4.810275375148336</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,13 +940,19 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>12.03742316731768</v>
+        <v>0.3213161157921718</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>12.03742316731751</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -894,31 +960,31 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.02881357053212952</v>
+        <v>0.2594667659496608</v>
       </c>
       <c r="D12">
-        <v>0.2526037403099082</v>
+        <v>0.1376988711302971</v>
       </c>
       <c r="E12">
-        <v>3.4597379411763</v>
+        <v>0.1634465700424599</v>
       </c>
       <c r="F12">
-        <v>8.339661184291344</v>
+        <v>5.468650151763455</v>
       </c>
       <c r="G12">
-        <v>9.831358644522254</v>
+        <v>6.204087654868545</v>
       </c>
       <c r="H12">
-        <v>4.638612554044187</v>
+        <v>0.09987570867441065</v>
       </c>
       <c r="I12">
-        <v>6.474220800674374</v>
+        <v>0.0885478159185098</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>3.152198719690773</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>4.557467617495575</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,13 +993,19 @@
         <v>0</v>
       </c>
       <c r="N12">
+        <v>0.2319340591180463</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
         <v>12.32306348037548</v>
       </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -941,31 +1013,31 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.02854430894561588</v>
+        <v>0.2434545562948358</v>
       </c>
       <c r="D13">
-        <v>0.2505088094289931</v>
+        <v>0.1181497052288591</v>
       </c>
       <c r="E13">
-        <v>3.430070558411686</v>
+        <v>0.1302259174254878</v>
       </c>
       <c r="F13">
-        <v>8.276919964998228</v>
+        <v>5.102424005681542</v>
       </c>
       <c r="G13">
-        <v>9.756897547954281</v>
+        <v>5.753537335700287</v>
       </c>
       <c r="H13">
-        <v>4.603732650145389</v>
+        <v>0.1515161524529276</v>
       </c>
       <c r="I13">
-        <v>6.42539291962413</v>
+        <v>0.08195448650941284</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>2.929946413548578</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>4.192250873461035</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,13 +1046,19 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>12.26155457991871</v>
+        <v>0.1596645010796394</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>12.26155457991888</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -988,31 +1066,31 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.02768359986343683</v>
+        <v>0.2311220606770199</v>
       </c>
       <c r="D14">
-        <v>0.2437819227637164</v>
+        <v>0.1038957057890286</v>
       </c>
       <c r="E14">
-        <v>3.33496374694208</v>
+        <v>0.1110629274632053</v>
       </c>
       <c r="F14">
-        <v>8.074745212037669</v>
+        <v>4.780769678464111</v>
       </c>
       <c r="G14">
-        <v>9.516992421592306</v>
+        <v>5.364914659024066</v>
       </c>
       <c r="H14">
-        <v>4.491373880327785</v>
+        <v>0.1971778352411349</v>
       </c>
       <c r="I14">
-        <v>6.268064715396321</v>
+        <v>0.07522584701288526</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>2.739337881620429</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>3.886718882198409</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,13 +1099,19 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>12.06092695796553</v>
+        <v>0.1201943296976005</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>12.06092695796559</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1035,31 +1119,31 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.02716904330408099</v>
+        <v>0.2269285246662598</v>
       </c>
       <c r="D15">
-        <v>0.2397382078953711</v>
+        <v>0.09981349173746423</v>
       </c>
       <c r="E15">
-        <v>3.277904452826832</v>
+        <v>0.1064773272244484</v>
       </c>
       <c r="F15">
-        <v>7.952693072074709</v>
+        <v>4.668918267598627</v>
       </c>
       <c r="G15">
-        <v>9.372187922502633</v>
+        <v>5.232094042597737</v>
       </c>
       <c r="H15">
-        <v>4.423570570468655</v>
+        <v>0.2081946989404884</v>
       </c>
       <c r="I15">
-        <v>6.173095588598073</v>
+        <v>0.07252503701627777</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>2.674665515885579</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>3.78540729575613</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,13 +1152,19 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.93801081193851</v>
+        <v>0.1116515031149987</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>11.93801081193845</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1082,31 +1172,31 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.02438812888074438</v>
+        <v>0.2144980230843778</v>
       </c>
       <c r="D16">
-        <v>0.2175925717771747</v>
+        <v>0.09494030758077088</v>
       </c>
       <c r="E16">
-        <v>2.96682520424001</v>
+        <v>0.1014049829416894</v>
       </c>
       <c r="F16">
-        <v>7.277428396370311</v>
+        <v>4.383347073260126</v>
       </c>
       <c r="G16">
-        <v>8.571362234403011</v>
+        <v>4.908778620182602</v>
       </c>
       <c r="H16">
-        <v>4.048816500114867</v>
+        <v>0.1894743879899892</v>
       </c>
       <c r="I16">
-        <v>5.647792979421695</v>
+        <v>0.06209441882147715</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>2.521073319031757</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>3.562607482417462</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,13 +1205,19 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.23323027560724</v>
+        <v>0.1071384158476931</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>11.23323027560713</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1129,31 +1225,31 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.02280809076772172</v>
+        <v>0.2110534142659404</v>
       </c>
       <c r="D17">
-        <v>0.204787261769269</v>
+        <v>0.09848210865020235</v>
       </c>
       <c r="E17">
-        <v>2.787966074237318</v>
+        <v>0.1065603485693796</v>
       </c>
       <c r="F17">
-        <v>6.881761910535204</v>
+        <v>4.332825215815717</v>
       </c>
       <c r="G17">
-        <v>8.102350197685496</v>
+        <v>4.863970980252134</v>
       </c>
       <c r="H17">
-        <v>3.829530733515639</v>
+        <v>0.1490360924283465</v>
       </c>
       <c r="I17">
-        <v>5.340088756731433</v>
+        <v>0.0576192029238527</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>2.503006596417947</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>3.550971052335342</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,13 +1258,19 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>10.80051555282949</v>
+        <v>0.1221961554196014</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>10.80051555282938</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1176,31 +1278,31 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.02193769509134924</v>
+        <v>0.2166366409758815</v>
       </c>
       <c r="D18">
-        <v>0.1976630057654916</v>
+        <v>0.1106619210319337</v>
       </c>
       <c r="E18">
-        <v>2.68875728729536</v>
+        <v>0.1257541662221886</v>
       </c>
       <c r="F18">
-        <v>6.660004570826743</v>
+        <v>4.486046489329624</v>
       </c>
       <c r="G18">
-        <v>7.83954947312418</v>
+        <v>5.063613587810153</v>
       </c>
       <c r="H18">
-        <v>3.706727278736707</v>
+        <v>0.09628946495350732</v>
       </c>
       <c r="I18">
-        <v>5.167660082862824</v>
+        <v>0.05735778092379196</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>2.604269588870011</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>3.729342344997434</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,13 +1311,19 @@
         <v>0</v>
       </c>
       <c r="N18">
+        <v>0.1660977709550693</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
         <v>10.55149949033279</v>
       </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1223,31 +1331,31 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.02164895713503157</v>
+        <v>0.2306186228144718</v>
       </c>
       <c r="D19">
-        <v>0.1952885450996007</v>
+        <v>0.128968738740042</v>
       </c>
       <c r="E19">
-        <v>2.65573756407619</v>
+        <v>0.161415340295779</v>
       </c>
       <c r="F19">
-        <v>6.585838035291545</v>
+        <v>4.77893782548179</v>
       </c>
       <c r="G19">
-        <v>7.751665541672651</v>
+        <v>5.430330866066868</v>
       </c>
       <c r="H19">
-        <v>3.6656718168407</v>
+        <v>0.05379666922008397</v>
       </c>
       <c r="I19">
-        <v>5.109996001716837</v>
+        <v>0.0609075559855059</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>2.786444784964374</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>4.035379485679726</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,13 +1364,19 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>10.46716465870088</v>
+        <v>0.2461082244295412</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>10.46716465870099</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1270,31 +1384,31 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.02297215757345228</v>
+        <v>0.2694686127273798</v>
       </c>
       <c r="D20">
-        <v>0.2061245486108305</v>
+        <v>0.1659130796077193</v>
       </c>
       <c r="E20">
-        <v>2.806611874208357</v>
+        <v>0.2427140590635588</v>
       </c>
       <c r="F20">
-        <v>6.923258570026263</v>
+        <v>5.493800294431736</v>
       </c>
       <c r="G20">
-        <v>8.151532090194053</v>
+        <v>6.302789555953552</v>
       </c>
       <c r="H20">
-        <v>3.852518429037161</v>
+        <v>0.03873010496693752</v>
       </c>
       <c r="I20">
-        <v>5.372356996794679</v>
+        <v>0.07581645596943076</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>3.2137001613591</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>4.73121710164375</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,13 +1417,19 @@
         <v>0</v>
       </c>
       <c r="N20">
+        <v>0.4240135834636192</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
         <v>10.84659223998074</v>
       </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1317,31 +1437,31 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.02793370429822417</v>
+        <v>0.3045226085443957</v>
       </c>
       <c r="D21">
-        <v>0.2457413945054014</v>
+        <v>0.1880288842839519</v>
       </c>
       <c r="E21">
-        <v>3.362643092768252</v>
+        <v>0.2796491824080718</v>
       </c>
       <c r="F21">
-        <v>8.13374823302189</v>
+        <v>6.238844957946725</v>
       </c>
       <c r="G21">
-        <v>9.587001257993734</v>
+        <v>7.171187439388632</v>
       </c>
       <c r="H21">
-        <v>4.524159040858933</v>
+        <v>0.05401037626119187</v>
       </c>
       <c r="I21">
-        <v>6.31397764272981</v>
+        <v>0.1013646831531254</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>3.630899568773486</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>5.366310801280576</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,13 +1470,19 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>12.11986155709366</v>
+        <v>0.4932972661532062</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>12.11986155709377</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1364,31 +1490,31 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.03172098124994704</v>
+        <v>0.32771575933441</v>
       </c>
       <c r="D22">
-        <v>0.2749400698693591</v>
+        <v>0.2017829810636158</v>
       </c>
       <c r="E22">
-        <v>3.777569727975902</v>
+        <v>0.300731763100643</v>
       </c>
       <c r="F22">
-        <v>9.002007544875852</v>
+        <v>6.720292525392495</v>
       </c>
       <c r="G22">
-        <v>10.61776754447595</v>
+        <v>7.730938641609271</v>
       </c>
       <c r="H22">
-        <v>5.007161874707379</v>
+        <v>0.06496879138357592</v>
       </c>
       <c r="I22">
-        <v>6.989804967162229</v>
+        <v>0.1195099900492878</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>3.899678558324013</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>5.774473139538856</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,13 +1523,19 @@
         <v>0</v>
       </c>
       <c r="N22">
+        <v>0.5299912417568748</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
         <v>12.95085643057945</v>
       </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1411,31 +1543,31 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.02963658427302107</v>
+        <v>0.3163480886661745</v>
       </c>
       <c r="D23">
-        <v>0.2589791695747579</v>
+        <v>0.195214437885781</v>
       </c>
       <c r="E23">
-        <v>3.550169455393032</v>
+        <v>0.2899779178408153</v>
       </c>
       <c r="F23">
-        <v>8.529949159981072</v>
+        <v>6.474851300876793</v>
       </c>
       <c r="G23">
-        <v>10.05722464577821</v>
+        <v>7.44664790068208</v>
       </c>
       <c r="H23">
-        <v>4.74443292178438</v>
+        <v>0.05912577993358425</v>
       </c>
       <c r="I23">
-        <v>6.622322638952483</v>
+        <v>0.1096961008103809</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>3.763365293227253</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>5.569473614186222</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,13 +1576,19 @@
         <v>0</v>
       </c>
       <c r="N23">
+        <v>0.5101972837736639</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
         <v>12.50744471934257</v>
       </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1458,31 +1596,31 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.02289786647425629</v>
+        <v>0.273098970146151</v>
       </c>
       <c r="D24">
-        <v>0.2055192315218335</v>
+        <v>0.1692425186036104</v>
       </c>
       <c r="E24">
-        <v>2.798171004204477</v>
+        <v>0.2493031081820831</v>
       </c>
       <c r="F24">
-        <v>6.904480359725596</v>
+        <v>5.539684439749891</v>
       </c>
       <c r="G24">
-        <v>8.129275934081022</v>
+        <v>6.36100596490644</v>
       </c>
       <c r="H24">
-        <v>3.842115650604455</v>
+        <v>0.03921676803596785</v>
       </c>
       <c r="I24">
-        <v>5.357754772787416</v>
+        <v>0.07612979450964552</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>3.242586251528166</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>4.781864388351721</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,13 +1629,19 @@
         <v>0</v>
       </c>
       <c r="N24">
+        <v>0.4369364743242841</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
         <v>10.82576172529139</v>
       </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1505,31 +1649,31 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.01707308479993941</v>
+        <v>0.2290144603455389</v>
       </c>
       <c r="D25">
-        <v>0.1569043820991425</v>
+        <v>0.1415156003879474</v>
       </c>
       <c r="E25">
-        <v>2.12488844955918</v>
+        <v>0.206967046566529</v>
       </c>
       <c r="F25">
-        <v>5.36942789626525</v>
+        <v>4.555315805643318</v>
       </c>
       <c r="G25">
-        <v>6.310827663585371</v>
+        <v>5.216943200528419</v>
       </c>
       <c r="H25">
-        <v>2.993516312572808</v>
+        <v>0.02204329108272285</v>
       </c>
       <c r="I25">
-        <v>4.164552600522057</v>
+        <v>0.0464883116342607</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>2.694038750707762</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>3.950230390875333</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,9 +1682,15 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>9.006838561192296</v>
+        <v>0.3603518069807734</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>9.00683856119241</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_0_6/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_6/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,8 +421,14 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -430,52 +436,58 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.2004438806249382</v>
+        <v>0.1378250609264136</v>
       </c>
       <c r="D2">
-        <v>0.1230197792369978</v>
+        <v>0.06943733426120247</v>
       </c>
       <c r="E2">
-        <v>0.1778664428472538</v>
+        <v>0.1359883268104412</v>
       </c>
       <c r="F2">
-        <v>3.873030632736629</v>
+        <v>2.955252598405707</v>
       </c>
       <c r="G2">
-        <v>4.425363071421145</v>
+        <v>3.254758084926436</v>
       </c>
       <c r="H2">
-        <v>0.01244390999646072</v>
+        <v>0.008211057090722784</v>
       </c>
       <c r="I2">
-        <v>0.02887833550078334</v>
+        <v>0.01990784156948155</v>
       </c>
       <c r="J2">
-        <v>2.315271587001803</v>
+        <v>1.825596053309937</v>
       </c>
       <c r="K2">
-        <v>3.378946000037317</v>
+        <v>2.385868080174774</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.9826426161961734</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.8333831586190712</v>
       </c>
       <c r="N2">
-        <v>0.3050065738110561</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>7.66312166460591</v>
+        <v>0.3221532139369856</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>7.663121664602784</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -483,52 +495,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1801632628528367</v>
+        <v>0.1239965162761862</v>
       </c>
       <c r="D3">
-        <v>0.1094339501377704</v>
+        <v>0.06321501033089305</v>
       </c>
       <c r="E3">
-        <v>0.1577630232904923</v>
+        <v>0.1224207875462113</v>
       </c>
       <c r="F3">
-        <v>3.400516123168813</v>
+        <v>2.617161432012466</v>
       </c>
       <c r="G3">
-        <v>3.875162083303849</v>
+        <v>2.870920508018031</v>
       </c>
       <c r="H3">
-        <v>0.007289955110980517</v>
+        <v>0.004802111270572618</v>
       </c>
       <c r="I3">
-        <v>0.01911322549123495</v>
+        <v>0.01356948569694572</v>
       </c>
       <c r="J3">
-        <v>2.051838049147676</v>
+        <v>1.639003575647706</v>
       </c>
       <c r="K3">
-        <v>2.978010692892653</v>
+        <v>2.127277360675336</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.907934630052452</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.7122601909909179</v>
       </c>
       <c r="N3">
-        <v>0.2683220878926562</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
+        <v>0.284886613445039</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
         <v>6.74968365211538</v>
       </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -536,52 +554,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1678382228025583</v>
+        <v>0.1156734509199442</v>
       </c>
       <c r="D4">
-        <v>0.10104799008203</v>
+        <v>0.05930909627370795</v>
       </c>
       <c r="E4">
-        <v>0.1455065768440278</v>
+        <v>0.1140796386998097</v>
       </c>
       <c r="F4">
-        <v>3.112215706133867</v>
+        <v>2.409739721040779</v>
       </c>
       <c r="G4">
-        <v>3.539155952900899</v>
+        <v>2.635567570061653</v>
       </c>
       <c r="H4">
-        <v>0.004743603576459421</v>
+        <v>0.003112527687364253</v>
       </c>
       <c r="I4">
-        <v>0.0140263958270701</v>
+        <v>0.01022401831485364</v>
       </c>
       <c r="J4">
-        <v>1.891027984533025</v>
+        <v>1.523956976936773</v>
       </c>
       <c r="K4">
-        <v>2.732766314784655</v>
+        <v>1.967978580300112</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.8608553449791714</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.6393365690619959</v>
       </c>
       <c r="N4">
-        <v>0.2460199054846584</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
+        <v>0.2621290635639753</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
         <v>6.187481969423061</v>
       </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -589,52 +613,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1625846817830379</v>
+        <v>0.1123096974807041</v>
       </c>
       <c r="D5">
-        <v>0.09743393214939999</v>
+        <v>0.05757742308077951</v>
       </c>
       <c r="E5">
-        <v>0.1404050244677713</v>
+        <v>0.1105823699712829</v>
       </c>
       <c r="F5">
-        <v>2.992262946953218</v>
+        <v>2.322963829696832</v>
       </c>
       <c r="G5">
-        <v>3.399047860127666</v>
+        <v>2.536924969026558</v>
       </c>
       <c r="H5">
-        <v>0.003839528241933676</v>
+        <v>0.002512371908940825</v>
       </c>
       <c r="I5">
-        <v>0.01218988637522322</v>
+        <v>0.009037251690582337</v>
       </c>
       <c r="J5">
-        <v>1.823929081221024</v>
+        <v>1.475534176967244</v>
       </c>
       <c r="K5">
-        <v>2.629875121227769</v>
+        <v>1.900532502329952</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.8404189773298469</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.6091160903876087</v>
       </c>
       <c r="N5">
-        <v>0.237018033194687</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
+        <v>0.2529254484363861</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
         <v>5.958052239810286</v>
       </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -642,52 +672,58 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1614082569463307</v>
+        <v>0.1117486092293376</v>
       </c>
       <c r="D6">
-        <v>0.09660849988912901</v>
+        <v>0.05714402164776544</v>
       </c>
       <c r="E6">
-        <v>0.1394102821949801</v>
+        <v>0.1098888867523904</v>
       </c>
       <c r="F6">
-        <v>2.968907464913656</v>
+        <v>2.305806328160841</v>
       </c>
       <c r="G6">
-        <v>3.37148831734936</v>
+        <v>2.517174122170246</v>
       </c>
       <c r="H6">
-        <v>0.003687739137777202</v>
+        <v>0.002411802882087644</v>
       </c>
       <c r="I6">
-        <v>0.01194045034359448</v>
+        <v>0.008918463235860763</v>
       </c>
       <c r="J6">
-        <v>1.810657675114783</v>
+        <v>1.465766251913436</v>
       </c>
       <c r="K6">
-        <v>2.608996422065488</v>
+        <v>1.886424470924567</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.8358559661647718</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.6030817213937425</v>
       </c>
       <c r="N6">
-        <v>0.2355772936529164</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
+        <v>0.2514551607890638</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
         <v>5.919936152110608</v>
       </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -695,52 +731,58 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1669277168862067</v>
+        <v>0.1155745425236372</v>
       </c>
       <c r="D7">
-        <v>0.1003829849994702</v>
+        <v>0.05864942508188875</v>
       </c>
       <c r="E7">
-        <v>0.1450298431365056</v>
+        <v>0.1137681368379013</v>
       </c>
       <c r="F7">
-        <v>3.101106162412009</v>
+        <v>2.396521838848571</v>
       </c>
       <c r="G7">
-        <v>3.525423017613207</v>
+        <v>2.631944416894555</v>
       </c>
       <c r="H7">
-        <v>0.004699964738063667</v>
+        <v>0.003076807649070146</v>
       </c>
       <c r="I7">
-        <v>0.0140965973229612</v>
+        <v>0.01036083007249111</v>
       </c>
       <c r="J7">
-        <v>1.88425065657816</v>
+        <v>1.502685688437708</v>
       </c>
       <c r="K7">
-        <v>2.720942361325086</v>
+        <v>1.955642905713077</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.8560862335367716</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.63480067063972</v>
       </c>
       <c r="N7">
-        <v>0.2460385491647941</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
+        <v>0.2620506666064983</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
         <v>6.184389112219776</v>
       </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -748,52 +790,58 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1922806115081386</v>
+        <v>0.1328660986918795</v>
       </c>
       <c r="D8">
-        <v>0.1175144685894196</v>
+        <v>0.06598441185423098</v>
       </c>
       <c r="E8">
-        <v>0.17035870477768</v>
+        <v>0.1310451926622456</v>
       </c>
       <c r="F8">
-        <v>3.696875790990958</v>
+        <v>2.813433831920861</v>
       </c>
       <c r="G8">
-        <v>4.219243353305075</v>
+        <v>3.133242023382508</v>
       </c>
       <c r="H8">
-        <v>0.01046992222131343</v>
+        <v>0.006874173427254604</v>
       </c>
       <c r="I8">
-        <v>0.02536915866730105</v>
+        <v>0.01769962431339422</v>
       </c>
       <c r="J8">
-        <v>2.216307566343261</v>
+        <v>1.70211032792875</v>
       </c>
       <c r="K8">
-        <v>3.226408732843723</v>
+        <v>2.274550334172872</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.9486194225412987</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.7830254728296921</v>
       </c>
       <c r="N8">
-        <v>0.2924853783505057</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
+        <v>0.3091121237393111</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
         <v>7.348453399592813</v>
       </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -801,52 +849,58 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.2451890301968973</v>
+        <v>0.1687154377748161</v>
       </c>
       <c r="D9">
-        <v>0.1519834883884243</v>
+        <v>0.081278502737959</v>
       </c>
       <c r="E9">
-        <v>0.2218511072362439</v>
+        <v>0.1654214822912508</v>
       </c>
       <c r="F9">
-        <v>4.902152658636936</v>
+        <v>3.664643618086899</v>
       </c>
       <c r="G9">
-        <v>5.621745076194827</v>
+        <v>4.113359511195767</v>
       </c>
       <c r="H9">
-        <v>0.02745814603666341</v>
+        <v>0.01798255999525056</v>
       </c>
       <c r="I9">
-        <v>0.05571919934287983</v>
+        <v>0.03684537480247574</v>
       </c>
       <c r="J9">
-        <v>2.888422719107666</v>
+        <v>2.155861333999837</v>
       </c>
       <c r="K9">
-        <v>4.248082443535679</v>
+        <v>2.924222224858312</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>1.131198406754109</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1.096125044836157</v>
       </c>
       <c r="N9">
-        <v>0.3856554473085936</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
+        <v>0.4028490242869367</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
         <v>9.620230281550789</v>
       </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -854,52 +908,58 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2822794359319261</v>
+        <v>0.1965031452212678</v>
       </c>
       <c r="D10">
-        <v>0.1737802709968577</v>
+        <v>0.08875879232577688</v>
       </c>
       <c r="E10">
-        <v>0.2525897259376322</v>
+        <v>0.1848336827198374</v>
       </c>
       <c r="F10">
-        <v>5.752101111006624</v>
+        <v>4.229370598193753</v>
       </c>
       <c r="G10">
-        <v>6.604324413584322</v>
+        <v>4.834702208526835</v>
       </c>
       <c r="H10">
-        <v>0.04362263216881379</v>
+        <v>0.02833500239696241</v>
       </c>
       <c r="I10">
-        <v>0.08375150494402916</v>
+        <v>0.05403480573399033</v>
       </c>
       <c r="J10">
-        <v>3.358666991444693</v>
+        <v>2.37126537041263</v>
       </c>
       <c r="K10">
-        <v>4.9542740625362</v>
+        <v>3.342746312155413</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>1.23874890770405</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1.311678457526156</v>
       </c>
       <c r="N10">
-        <v>0.4383945098371811</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
+        <v>0.4536723530098214</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
         <v>11.28258838837513</v>
       </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -907,52 +967,58 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.271889233104595</v>
+        <v>0.2101634029994059</v>
       </c>
       <c r="D11">
-        <v>0.1556169691886282</v>
+        <v>0.07488075143653816</v>
       </c>
       <c r="E11">
-        <v>0.2025169057719154</v>
+        <v>0.1454667763297977</v>
       </c>
       <c r="F11">
-        <v>5.688588704562733</v>
+        <v>4.122785808916774</v>
       </c>
       <c r="G11">
-        <v>6.48996870743224</v>
+        <v>4.838215410123325</v>
       </c>
       <c r="H11">
-        <v>0.06303570869442865</v>
+        <v>0.04704983998990997</v>
       </c>
       <c r="I11">
-        <v>0.08968847672161573</v>
+        <v>0.05787558231355217</v>
       </c>
       <c r="J11">
-        <v>3.295858529440238</v>
+        <v>2.127728616404283</v>
       </c>
       <c r="K11">
-        <v>4.810275375148336</v>
+        <v>3.188407685182966</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>1.163882112959683</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1.272814068779098</v>
       </c>
       <c r="N11">
-        <v>0.3213161157921718</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
+        <v>0.3284808043336653</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
         <v>12.03742316731751</v>
       </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -960,52 +1026,58 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2594667659496608</v>
+        <v>0.2176437478972844</v>
       </c>
       <c r="D12">
-        <v>0.1376988711302971</v>
+        <v>0.06414503978080432</v>
       </c>
       <c r="E12">
-        <v>0.1634465700424599</v>
+        <v>0.1169383144113816</v>
       </c>
       <c r="F12">
-        <v>5.468650151763455</v>
+        <v>3.942200338119477</v>
       </c>
       <c r="G12">
-        <v>6.204087654868545</v>
+        <v>4.675209422511898</v>
       </c>
       <c r="H12">
-        <v>0.09987570867441065</v>
+        <v>0.08446070289804908</v>
       </c>
       <c r="I12">
-        <v>0.0885478159185098</v>
+        <v>0.05733680436213007</v>
       </c>
       <c r="J12">
-        <v>3.152198719690773</v>
+        <v>1.946934046276795</v>
       </c>
       <c r="K12">
-        <v>4.557467617495575</v>
+        <v>2.997674809893979</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>1.089042303350652</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1.204421140522172</v>
       </c>
       <c r="N12">
-        <v>0.2319340591180463</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
+        <v>0.2332182448248901</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
         <v>12.32306348037548</v>
       </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1013,52 +1085,58 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2434545562948358</v>
+        <v>0.2211714831103322</v>
       </c>
       <c r="D13">
-        <v>0.1181497052288591</v>
+        <v>0.05481431717130647</v>
       </c>
       <c r="E13">
-        <v>0.1302259174254878</v>
+        <v>0.09478406510423376</v>
       </c>
       <c r="F13">
-        <v>5.102424005681542</v>
+        <v>3.693248947842051</v>
       </c>
       <c r="G13">
-        <v>5.753537335700287</v>
+        <v>4.344447175612856</v>
       </c>
       <c r="H13">
-        <v>0.1515161524529276</v>
+        <v>0.1377194027603537</v>
       </c>
       <c r="I13">
-        <v>0.08195448650941284</v>
+        <v>0.0536514938008068</v>
       </c>
       <c r="J13">
-        <v>2.929946413548578</v>
+        <v>1.825099907782516</v>
       </c>
       <c r="K13">
-        <v>4.192250873461035</v>
+        <v>2.76368484876275</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>1.007495778142186</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1.108420250609257</v>
       </c>
       <c r="N13">
-        <v>0.1596645010796394</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
+        <v>0.1563579586593349</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
         <v>12.26155457991888</v>
       </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1066,52 +1144,58 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2311220606770199</v>
+        <v>0.2224126584809483</v>
       </c>
       <c r="D14">
-        <v>0.1038957057890286</v>
+        <v>0.04879796135472958</v>
       </c>
       <c r="E14">
-        <v>0.1110629274632053</v>
+        <v>0.08349770945055157</v>
       </c>
       <c r="F14">
-        <v>4.780769678464111</v>
+        <v>3.486240313604554</v>
       </c>
       <c r="G14">
-        <v>5.364914659024066</v>
+        <v>4.039662594452011</v>
       </c>
       <c r="H14">
-        <v>0.1971778352411349</v>
+        <v>0.1848852032129855</v>
       </c>
       <c r="I14">
-        <v>0.07522584701288526</v>
+        <v>0.04985360816936524</v>
       </c>
       <c r="J14">
-        <v>2.739337881620429</v>
+        <v>1.760623539541314</v>
       </c>
       <c r="K14">
-        <v>3.886718882198409</v>
+        <v>2.57869209115556</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.9463716072910557</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1.028576934433772</v>
       </c>
       <c r="N14">
-        <v>0.1201943296976005</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
+        <v>0.1140980628907649</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
         <v>12.06092695796559</v>
       </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1119,52 +1203,58 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2269285246662598</v>
+        <v>0.2218591309956963</v>
       </c>
       <c r="D15">
-        <v>0.09981349173746423</v>
+        <v>0.04731665205007118</v>
       </c>
       <c r="E15">
-        <v>0.1064773272244484</v>
+        <v>0.0810357577643952</v>
       </c>
       <c r="F15">
-        <v>4.668918267598627</v>
+        <v>3.417734797444865</v>
       </c>
       <c r="G15">
-        <v>5.232094042597737</v>
+        <v>3.929458835918098</v>
       </c>
       <c r="H15">
-        <v>0.2081946989404884</v>
+        <v>0.1964963461660147</v>
       </c>
       <c r="I15">
-        <v>0.07252503701627777</v>
+        <v>0.04834950848742192</v>
       </c>
       <c r="J15">
-        <v>2.674665515885579</v>
+        <v>1.75146513951168</v>
       </c>
       <c r="K15">
-        <v>3.78540729575613</v>
+        <v>2.520760168032027</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.9285059545563428</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1.002043528228413</v>
       </c>
       <c r="N15">
-        <v>0.1116515031149987</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
+        <v>0.1050821197918985</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
         <v>11.93801081193845</v>
       </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1172,52 +1262,58 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2144980230843778</v>
+        <v>0.2101789401780678</v>
       </c>
       <c r="D16">
-        <v>0.09494030758077088</v>
+        <v>0.04737801775115713</v>
       </c>
       <c r="E16">
-        <v>0.1014049829416894</v>
+        <v>0.07789143488898409</v>
       </c>
       <c r="F16">
-        <v>4.383347073260126</v>
+        <v>3.264811265386015</v>
       </c>
       <c r="G16">
-        <v>4.908778620182602</v>
+        <v>3.630203438358222</v>
       </c>
       <c r="H16">
-        <v>0.1894743879899892</v>
+        <v>0.1799584594994599</v>
       </c>
       <c r="I16">
-        <v>0.06209441882147715</v>
+        <v>0.04213571717954867</v>
       </c>
       <c r="J16">
-        <v>2.521073319031757</v>
+        <v>1.808323362721495</v>
       </c>
       <c r="K16">
-        <v>3.562607482417462</v>
+        <v>2.418038954131504</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.9074572517692587</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.9423166883104983</v>
       </c>
       <c r="N16">
-        <v>0.1071384158476931</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
+        <v>0.1025565203827448</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
         <v>11.23323027560713</v>
       </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1225,52 +1321,58 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2110534142659404</v>
+        <v>0.1999993709761583</v>
       </c>
       <c r="D17">
-        <v>0.09848210865020235</v>
+        <v>0.0504203757263042</v>
       </c>
       <c r="E17">
-        <v>0.1065603485693796</v>
+        <v>0.08043444590618165</v>
       </c>
       <c r="F17">
-        <v>4.332825215815717</v>
+        <v>3.250509913904523</v>
       </c>
       <c r="G17">
-        <v>4.863970980252134</v>
+        <v>3.569912309238589</v>
       </c>
       <c r="H17">
-        <v>0.1490360924283465</v>
+        <v>0.1403964675612599</v>
       </c>
       <c r="I17">
-        <v>0.0576192029238527</v>
+        <v>0.03934729032651418</v>
       </c>
       <c r="J17">
-        <v>2.503006596417947</v>
+        <v>1.867577323994908</v>
       </c>
       <c r="K17">
-        <v>3.550971052335342</v>
+        <v>2.431954119286047</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.9222395660756177</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.9363268507762683</v>
       </c>
       <c r="N17">
-        <v>0.1221961554196014</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
+        <v>0.1206983023956596</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
         <v>10.80051555282938</v>
       </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1278,52 +1380,58 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2166366409758815</v>
+        <v>0.1908195387868972</v>
       </c>
       <c r="D18">
-        <v>0.1106619210319337</v>
+        <v>0.05746767282719389</v>
       </c>
       <c r="E18">
-        <v>0.1257541662221886</v>
+        <v>0.09251202886367516</v>
       </c>
       <c r="F18">
-        <v>4.486046489329624</v>
+        <v>3.369955597378265</v>
       </c>
       <c r="G18">
-        <v>5.063613587810153</v>
+        <v>3.699976736516504</v>
       </c>
       <c r="H18">
-        <v>0.09628946495350732</v>
+        <v>0.08755928540209368</v>
       </c>
       <c r="I18">
-        <v>0.05735778092379196</v>
+        <v>0.03891620829781051</v>
       </c>
       <c r="J18">
-        <v>2.604269588870011</v>
+        <v>1.971154376029489</v>
       </c>
       <c r="K18">
-        <v>3.729342344997434</v>
+        <v>2.562880059415846</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.9754895667124543</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.9811766959051624</v>
       </c>
       <c r="N18">
-        <v>0.1660977709550693</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
+        <v>0.169191033401809</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
         <v>10.55149949033279</v>
       </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1331,52 +1439,58 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2306186228144718</v>
+        <v>0.1853818945143146</v>
       </c>
       <c r="D19">
-        <v>0.128968738740042</v>
+        <v>0.06751615220358786</v>
       </c>
       <c r="E19">
-        <v>0.161415340295779</v>
+        <v>0.1176057168963336</v>
       </c>
       <c r="F19">
-        <v>4.77893782548179</v>
+        <v>3.581243440614713</v>
       </c>
       <c r="G19">
-        <v>5.430330866066868</v>
+        <v>3.955104572304066</v>
       </c>
       <c r="H19">
-        <v>0.05379666922008397</v>
+        <v>0.04411745743050943</v>
       </c>
       <c r="I19">
-        <v>0.0609075559855059</v>
+        <v>0.04095979207211897</v>
       </c>
       <c r="J19">
-        <v>2.786444784964374</v>
+        <v>2.109264726100179</v>
       </c>
       <c r="K19">
-        <v>4.035379485679726</v>
+        <v>2.771472881190604</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>1.053334510268698</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1.060916293998716</v>
       </c>
       <c r="N19">
-        <v>0.2461082244295412</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
+        <v>0.2548107956259855</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
         <v>10.46716465870099</v>
       </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1384,52 +1498,58 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2694686127273798</v>
+        <v>0.1893719744361064</v>
       </c>
       <c r="D20">
-        <v>0.1659130796077193</v>
+        <v>0.08639650767718621</v>
       </c>
       <c r="E20">
-        <v>0.2427140590635588</v>
+        <v>0.1782898931569008</v>
       </c>
       <c r="F20">
-        <v>5.493800294431736</v>
+        <v>4.071677301184792</v>
       </c>
       <c r="G20">
-        <v>6.302789555953552</v>
+        <v>4.586948212284369</v>
       </c>
       <c r="H20">
-        <v>0.03873010496693752</v>
+        <v>0.02528028452799136</v>
       </c>
       <c r="I20">
-        <v>0.07581645596943076</v>
+        <v>0.04972158284581241</v>
       </c>
       <c r="J20">
-        <v>3.2137001613591</v>
+        <v>2.356628589160209</v>
       </c>
       <c r="K20">
-        <v>4.73121710164375</v>
+        <v>3.21885989053915</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>1.205742396318541</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1.248982086144608</v>
       </c>
       <c r="N20">
-        <v>0.4240135834636192</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
+        <v>0.4403361056580053</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
         <v>10.84659223998074</v>
       </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1437,52 +1557,58 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.3045226085443957</v>
+        <v>0.2106343540162499</v>
       </c>
       <c r="D21">
-        <v>0.1880288842839519</v>
+        <v>0.09043498353505441</v>
       </c>
       <c r="E21">
-        <v>0.2796491824080718</v>
+        <v>0.2042053140838789</v>
       </c>
       <c r="F21">
-        <v>6.238844957946725</v>
+        <v>4.478856181425812</v>
       </c>
       <c r="G21">
-        <v>7.171187439388632</v>
+        <v>5.358107323435604</v>
       </c>
       <c r="H21">
-        <v>0.05401037626119187</v>
+        <v>0.0345724608587612</v>
       </c>
       <c r="I21">
-        <v>0.1013646831531254</v>
+        <v>0.06437739495047357</v>
       </c>
       <c r="J21">
-        <v>3.630899568773486</v>
+        <v>2.261490495429825</v>
       </c>
       <c r="K21">
-        <v>5.366310801280576</v>
+        <v>3.531262447375823</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>1.283814648058623</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1.41355009434524</v>
       </c>
       <c r="N21">
-        <v>0.4932972661532062</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
+        <v>0.5066426303770015</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
         <v>12.11986155709377</v>
       </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1490,52 +1616,58 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.32771575933441</v>
+        <v>0.225211600933136</v>
       </c>
       <c r="D22">
-        <v>0.2017829810636158</v>
+        <v>0.09221961957155855</v>
       </c>
       <c r="E22">
-        <v>0.300731763100643</v>
+        <v>0.2186939639929442</v>
       </c>
       <c r="F22">
-        <v>6.720292525392495</v>
+        <v>4.730666498223883</v>
       </c>
       <c r="G22">
-        <v>7.730938641609271</v>
+        <v>5.872311001366427</v>
       </c>
       <c r="H22">
-        <v>0.06496879138357592</v>
+        <v>0.04113701573910244</v>
       </c>
       <c r="I22">
-        <v>0.1195099900492878</v>
+        <v>0.07444205575688212</v>
       </c>
       <c r="J22">
-        <v>3.899678558324013</v>
+        <v>2.177493589824735</v>
       </c>
       <c r="K22">
-        <v>5.774473139538856</v>
+        <v>3.722673943955073</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>1.329478286651934</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1.517507006940818</v>
       </c>
       <c r="N22">
-        <v>0.5299912417568748</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
+        <v>0.5404356821528467</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
         <v>12.95085643057945</v>
       </c>
-      <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1543,52 +1675,58 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.3163480886661745</v>
+        <v>0.2174392409119754</v>
       </c>
       <c r="D23">
-        <v>0.195214437885781</v>
+        <v>0.09235036530171215</v>
       </c>
       <c r="E23">
-        <v>0.2899779178408153</v>
+        <v>0.211188956232423</v>
       </c>
       <c r="F23">
-        <v>6.474851300876793</v>
+        <v>4.617715827414941</v>
       </c>
       <c r="G23">
-        <v>7.44664790068208</v>
+        <v>5.588796238654254</v>
       </c>
       <c r="H23">
-        <v>0.05912577993358425</v>
+        <v>0.03769289325507774</v>
       </c>
       <c r="I23">
-        <v>0.1096961008103809</v>
+        <v>0.06894635745628896</v>
       </c>
       <c r="J23">
-        <v>3.763365293227253</v>
+        <v>2.2665312048386</v>
       </c>
       <c r="K23">
-        <v>5.569473614186222</v>
+        <v>3.639616751520578</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>1.31195116453857</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1.469576156133002</v>
       </c>
       <c r="N23">
-        <v>0.5101972837736639</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
+        <v>0.5224886618841538</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
         <v>12.50744471934257</v>
       </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1596,52 +1734,58 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.273098970146151</v>
+        <v>0.1889684259158599</v>
       </c>
       <c r="D24">
-        <v>0.1692425186036104</v>
+        <v>0.08838185665417342</v>
       </c>
       <c r="E24">
-        <v>0.2493031081820831</v>
+        <v>0.1834135064986526</v>
       </c>
       <c r="F24">
-        <v>5.539684439749891</v>
+        <v>4.106158120324892</v>
       </c>
       <c r="G24">
-        <v>6.36100596490644</v>
+        <v>4.627867642516549</v>
       </c>
       <c r="H24">
-        <v>0.03921676803596785</v>
+        <v>0.02557317694226091</v>
       </c>
       <c r="I24">
-        <v>0.07612979450964552</v>
+        <v>0.04963888136988537</v>
       </c>
       <c r="J24">
-        <v>3.242586251528166</v>
+        <v>2.380798482002035</v>
       </c>
       <c r="K24">
-        <v>4.781864388351721</v>
+        <v>3.255026209805223</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>1.219383229020224</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1.262683367142785</v>
       </c>
       <c r="N24">
-        <v>0.4369364743242841</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
+        <v>0.4538171478766486</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
         <v>10.82576172529139</v>
       </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1649,48 +1793,54 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.2290144603455389</v>
+        <v>0.1588669834285614</v>
       </c>
       <c r="D25">
-        <v>0.1415156003879474</v>
+        <v>0.07684454507418081</v>
       </c>
       <c r="E25">
-        <v>0.206967046566529</v>
+        <v>0.1554460755225264</v>
       </c>
       <c r="F25">
-        <v>4.555315805643318</v>
+        <v>3.426297263882958</v>
       </c>
       <c r="G25">
-        <v>5.216943200528419</v>
+        <v>3.819874965422969</v>
       </c>
       <c r="H25">
-        <v>0.02204329108272285</v>
+        <v>0.01448370009837452</v>
       </c>
       <c r="I25">
-        <v>0.0464883116342607</v>
+        <v>0.03132382972912051</v>
       </c>
       <c r="J25">
-        <v>2.694038750707762</v>
+        <v>2.047651843394817</v>
       </c>
       <c r="K25">
-        <v>3.950230390875333</v>
+        <v>2.738993033117637</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>1.079218043133451</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1.006246316360816</v>
       </c>
       <c r="N25">
-        <v>0.3603518069807734</v>
+        <v>0</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
+        <v>0.3777362622262501</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
         <v>9.00683856119241</v>
       </c>
-      <c r="Q25">
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
